--- a/longitudinal/data_processing_elements_longitudinal-BCS.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-BCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90188DC1-21B1-4BA1-9CD1-19DA73BC18FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B870AAA-5349-4059-9404-745EF59F6661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{17FAC360-F975-4673-8378-999FF3470EEC}"/>
+    <workbookView xWindow="30" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{17FAC360-F975-4673-8378-999FF3470EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="436">
   <si>
     <t>index</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>paste</t>
-  </si>
-  <si>
-    <t>adm_f1_date</t>
   </si>
   <si>
     <t>Completion date</t>
@@ -252,9 +249,6 @@
     <t>paste(b11inty, b11intm, "15", sep = "-")</t>
   </si>
   <si>
-    <t>sdc_f1_sex</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
     <t>recode(1=2; 2=1; ELSE=NA)</t>
   </si>
   <si>
-    <t>sdc_f1_age</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -309,9 +300,6 @@
   </si>
   <si>
     <t>All participants were 51 years old</t>
-  </si>
-  <si>
-    <t>sdc_f1_education</t>
   </si>
   <si>
     <t>Level of education</t>
@@ -354,9 +342,6 @@
 7=3;
 8=3;
 ELSE=NA)</t>
-  </si>
-  <si>
-    <t>sdc_f1_employment_status</t>
   </si>
   <si>
     <t>Current employment status</t>
@@ -399,9 +384,6 @@
     <t>recode(-9=NA; -8=NA; -3=NA; -2=NA; -1=NA; 1=1; 2=1; 3=1; 4=1; 5=0; 6=NA; 7=NA; 8=NA; 9=0; 10=NA; 11=0; 12=NA; 13=NA; ELSE=NA)</t>
   </si>
   <si>
-    <t>sdc_f1_employment_pattern</t>
-  </si>
-  <si>
     <t>Current employment pattern</t>
   </si>
   <si>
@@ -415,9 +397,6 @@
     <t>recode(-9=NA; -8=NA; -3=NA; -2=NA; -1=NA; 1=1; 2=0; 3=1; 4=0; 5=NA; 6=NA; 7=NA; 8=NA; 9=NA; 10=NA; 11=NA; 12=NA; 13=NA; ELSE=NA)</t>
   </si>
   <si>
-    <t>sdc_f1_work_hours</t>
-  </si>
-  <si>
     <t>Number of hours of work per week</t>
   </si>
   <si>
@@ -431,9 +410,6 @@
   </si>
   <si>
     <t>unavailable</t>
-  </si>
-  <si>
-    <t>sdc_f1_employment_description</t>
   </si>
   <si>
     <t>Employment description</t>
@@ -497,9 +473,6 @@
 ELSE=NA)</t>
   </si>
   <si>
-    <t>sdc_f1_retirement_status</t>
-  </si>
-  <si>
     <t>Current retirement status</t>
   </si>
   <si>
@@ -511,9 +484,6 @@
   </si>
   <si>
     <t>recode(-9=NA; -8=NA; -3=NA; -2=NA; -1=NA; 1=0; 2=0; 3=0; 4=0; 5=0; 6=0; 7=0; 8=0; 9=0; 10=0; 11=1; 12=NA; 13=NA; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>sdc_f1_married</t>
   </si>
   <si>
     <t>Ever married</t>
@@ -565,9 +535,6 @@
     <t>recode(1=2; 2=1; 3=2; 4=2; 5=1; 6=NA; 7=0; ELSE=NA)</t>
   </si>
   <si>
-    <t>sdc_f1_relationship</t>
-  </si>
-  <si>
     <t>Currently in a formal relationship</t>
   </si>
   <si>
@@ -579,9 +546,6 @@
   </si>
   <si>
     <t>recode(2=1; 5=1; 7=0; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>sdc_f1_location</t>
   </si>
   <si>
     <t>Urban or rural location</t>
@@ -622,9 +586,6 @@
     <t>recode(1=2; 2=2; 3=1; 4=1; 5=1; 6=1; 7=1; 8=1; 9=2; 10=2; 11=2; 12=2; 13=1; 14=1; 15=1; 16=1; 17=1; 18=1; ELSE=NA)</t>
   </si>
   <si>
-    <t>pm_f1_height</t>
-  </si>
-  <si>
     <t>Participant's height</t>
   </si>
   <si>
@@ -648,9 +609,6 @@
 ELSE ~ NA_real_)</t>
   </si>
   <si>
-    <t>pm_f1_height_method</t>
-  </si>
-  <si>
     <t>Method used to measure the height</t>
   </si>
   <si>
@@ -662,9 +620,6 @@
 b11htcms &gt; 0 ~ 1L;
 b11htmees &gt; 0 ~ 1L;
 ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>pm_f1_weight</t>
   </si>
   <si>
     <t>Participant's weight</t>
@@ -691,9 +646,6 @@
 ELSE ~ NA_real_)</t>
   </si>
   <si>
-    <t>pm_f1_weight_method</t>
-  </si>
-  <si>
     <t>Method used to measure the weight</t>
   </si>
   <si>
@@ -704,9 +656,6 @@
 ELSE ~ NA_real_)</t>
   </si>
   <si>
-    <t>pm_f1_bmi</t>
-  </si>
-  <si>
     <t>Body mass index</t>
   </si>
   <si>
@@ -724,36 +673,21 @@
 ELSE ~ NA_real_)</t>
   </si>
   <si>
-    <t>pm_f1_waist_circ</t>
-  </si>
-  <si>
     <t>Waist circumference</t>
   </si>
   <si>
-    <t>pm_f1_waist_circ_method</t>
-  </si>
-  <si>
     <t>Method used to measure the waist circumference</t>
   </si>
   <si>
-    <t>pm_f1_bodyfat_perc</t>
-  </si>
-  <si>
     <t>Body fat percentage</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>pm_f1_bodyfat_perc_method</t>
-  </si>
-  <si>
     <t>Method used to measure the body fat percentage</t>
   </si>
   <si>
-    <t>pm_f1_systo_bp</t>
-  </si>
-  <si>
     <t>Systolic blood pressure</t>
   </si>
   <si>
@@ -763,34 +697,22 @@
     <t>mmHg</t>
   </si>
   <si>
-    <t>pm_f1_diasto_bp</t>
-  </si>
-  <si>
     <t>Diastolic blood pressure</t>
   </si>
   <si>
     <t>Diastolic blood pressure, average of all available measures</t>
   </si>
   <si>
-    <t>pm_f1_resting_heart_rate</t>
-  </si>
-  <si>
     <t>Resting heart rate</t>
   </si>
   <si>
     <t>beats/minute</t>
   </si>
   <si>
-    <t>pm_f1_cardiorespiratoy_fitness</t>
-  </si>
-  <si>
     <t>Cardiorespiratoy fitness</t>
   </si>
   <si>
     <t>ml/min/kg</t>
-  </si>
-  <si>
-    <t>lab_f1_blood_fasting</t>
   </si>
   <si>
     <t>Blood sampling fasting</t>
@@ -801,69 +723,42 @@
 2 = Long fast (&gt;4h)</t>
   </si>
   <si>
-    <t>lab_f1_red_blood_cell_count</t>
-  </si>
-  <si>
     <t>Red blood cell count</t>
   </si>
   <si>
     <t>10^12/L</t>
   </si>
   <si>
-    <t>lab_f1_HbA1c</t>
-  </si>
-  <si>
     <t>Glycated hemoglobin (A1c)</t>
   </si>
   <si>
     <t>mmol/mol</t>
   </si>
   <si>
-    <t>lab_f1_chol_tot</t>
-  </si>
-  <si>
     <t>Total cholesterol</t>
   </si>
   <si>
     <t>mmol/L</t>
   </si>
   <si>
-    <t>lab_f1_chol_hdl</t>
-  </si>
-  <si>
     <t>HDL cholesterol</t>
   </si>
   <si>
-    <t>lab_f1_chol_ldl</t>
-  </si>
-  <si>
     <t>LDL cholesterol</t>
   </si>
   <si>
-    <t>lab_f1_chol_ldl_calculated</t>
-  </si>
-  <si>
     <t>Calculated LDL cholesterol</t>
   </si>
   <si>
-    <t>lab_f1_trigly</t>
-  </si>
-  <si>
     <t>Triglycerides</t>
   </si>
   <si>
-    <t>lab_f1_c_reac_pro</t>
-  </si>
-  <si>
     <t>C-reactive protein</t>
   </si>
   <si>
     <t>µg/ml</t>
   </si>
   <si>
-    <t>nut_f1_fruit_quantity</t>
-  </si>
-  <si>
     <t>Fruit intake quantity</t>
   </si>
   <si>
@@ -871,9 +766,6 @@
   </si>
   <si>
     <t>g/day</t>
-  </si>
-  <si>
-    <t>nut_f1_fruit_frequency</t>
   </si>
   <si>
     <t>Fruit intake frequency</t>
@@ -887,36 +779,24 @@
 3 = Every day</t>
   </si>
   <si>
-    <t>nut_f1_vegetable_quantity</t>
-  </si>
-  <si>
     <t>Vegetable intake quantity</t>
   </si>
   <si>
     <t>Vegetable Intake quantity</t>
   </si>
   <si>
-    <t>nut_f1_vegetable_frequency</t>
-  </si>
-  <si>
     <t>Vegetable intake frequency</t>
   </si>
   <si>
     <t>Vegetable Intake frequency</t>
   </si>
   <si>
-    <t>nut_f1_energy_tot</t>
-  </si>
-  <si>
     <t>Total energy intake</t>
   </si>
   <si>
     <t>kcal/day</t>
   </si>
   <si>
-    <t>alc_f1_alcohol</t>
-  </si>
-  <si>
     <t>Alcohol intake</t>
   </si>
   <si>
@@ -926,33 +806,7 @@
     <t>g/week</t>
   </si>
   <si>
-    <t>b11drink01 
-b11drink02 
-b11drink03 
-b11drink04 
-b11drink05 
-b11drink06 
-b11drink07 
-b11drink08 
-b11beern 
-b11beers 
-b11spiris 
-b11sherry 
-b11wine 
-b11winebt 
-b11wings1 
-b11wings2 
-b11wings3 
-b11winlag 
-b11winstg 
-b11winsmg 
-b11alcopp</t>
-  </si>
-  <si>
     <t>could maybe harmonize but need to double check, would probably add a lot of incertitude and would be very long</t>
-  </si>
-  <si>
-    <t>alc_f1_alcohol_frequency</t>
   </si>
   <si>
     <t>Frequency of alcohol consumption</t>
@@ -985,9 +839,6 @@
     <t>recode(-9=NA; -8=NA; -3=NA; -1=NA; 1=0; 2=0; 3=1; 4=2; 5=3; ELSE=NA)</t>
   </si>
   <si>
-    <t>smk_f1_smoking_status</t>
-  </si>
-  <si>
     <t>Smoking status</t>
   </si>
   <si>
@@ -1025,9 +876,6 @@
     <t>recode(-9=NA; -8=NA; -3=NA; -2=NA; -1=NA; 1=0; 2=1; 3=2; 4=2; ELSE=NA)</t>
   </si>
   <si>
-    <t>smk_f1_smoking_frequency</t>
-  </si>
-  <si>
     <t>Current smoking frequency</t>
   </si>
   <si>
@@ -1035,9 +883,6 @@
 2 = Daily/Almost daily</t>
   </si>
   <si>
-    <t>smk_f1_smoking_quantity</t>
-  </si>
-  <si>
     <t>Number cigarettes smoked per week</t>
   </si>
   <si>
@@ -1052,9 +897,6 @@
   <si>
     <t>-8=Not known
 -1=Not applicable</t>
-  </si>
-  <si>
-    <t>lsb_f1_rated_health</t>
   </si>
   <si>
     <t>Self Rated Health</t>
@@ -1066,9 +908,6 @@
 4 = Very good/Excellent</t>
   </si>
   <si>
-    <t>dis_f1_cvd</t>
-  </si>
-  <si>
     <t>Cardio vascular diseases</t>
   </si>
   <si>
@@ -1095,18 +934,12 @@
     <t>can we say 0 if only since last visit, what is the definition in longitudinal?</t>
   </si>
   <si>
-    <t>dis_f1_musculoskeletal</t>
-  </si>
-  <si>
     <t>Musculoskeletal diseases</t>
   </si>
   <si>
     <t>Musculoskeletal diseases (osteoporosis, arthrosis, rheumatic disorder, osteoarthritis or rheumatism, rheumatoid arthritis, osteoarthritis, other arthritis, rheumatoid arthritis)</t>
   </si>
   <si>
-    <t>dis_f1_diabetes</t>
-  </si>
-  <si>
     <t>Diabetes</t>
   </si>
   <si>
@@ -1117,9 +950,6 @@
   </si>
   <si>
     <t>Health problems since last interview/2016: (Sugar) Diabetes</t>
-  </si>
-  <si>
-    <t>dis_f1_diabetes_type</t>
   </si>
   <si>
     <t>Diabetes type</t>
@@ -1133,9 +963,6 @@
 3 = Other</t>
   </si>
   <si>
-    <t>dis_f1_cancer</t>
-  </si>
-  <si>
     <t>Cancer</t>
   </si>
   <si>
@@ -1146,85 +973,46 @@
 Also, have a lot of cancer type</t>
   </si>
   <si>
-    <t>dis_f1_hypercholesteromia</t>
-  </si>
-  <si>
     <t>Diagnosed hypercholesteromia</t>
   </si>
   <si>
     <t>Health problems since last interview/2016: Raised cholesterol</t>
   </si>
   <si>
-    <t>med_f1_lipid_lowering</t>
-  </si>
-  <si>
     <t>Current use of lipid lowering medication</t>
   </si>
   <si>
-    <t>med_f1_blood_pressure</t>
-  </si>
-  <si>
     <t>Current use of medication to manage blood pressure</t>
   </si>
   <si>
-    <t>med_f1_diabetes</t>
-  </si>
-  <si>
     <t>Current use of medication for diabetes</t>
   </si>
   <si>
-    <t>cog_f1_depression</t>
-  </si>
-  <si>
     <t>Depression</t>
   </si>
   <si>
     <t>Indicator of whether the participant has ever being diagnosed with depression or not</t>
   </si>
   <si>
-    <t>cog_f1_dep_cesd20</t>
-  </si>
-  <si>
     <t>CES-D (20 items) score</t>
   </si>
   <si>
-    <t>cog_f1_dep_cesd10</t>
-  </si>
-  <si>
     <t>CES-D (10 items) score</t>
   </si>
   <si>
-    <t>cog_f1_dep_malaise</t>
-  </si>
-  <si>
     <t>Malaise inventory (9 items) score</t>
   </si>
   <si>
-    <t>cog_f1_dep_kessler</t>
-  </si>
-  <si>
     <t>Kessler psychological distress score</t>
   </si>
   <si>
-    <t>cog_f1_dep_phq9</t>
-  </si>
-  <si>
     <t>PHQ-9 score</t>
   </si>
   <si>
-    <t>cog_f1_mci_mmse_score</t>
-  </si>
-  <si>
     <t>MMSE score</t>
   </si>
   <si>
-    <t>cog_f1_mci_moca_score</t>
-  </si>
-  <si>
     <t>MoCa score</t>
-  </si>
-  <si>
-    <t>cog_f1_alzheimers_dementia</t>
   </si>
   <si>
     <t>Alzheimers/Dementia</t>
@@ -1234,9 +1022,6 @@
 1 = Has been diagnosed with Alzheimers or other dementia</t>
   </si>
   <si>
-    <t>sleep_f1_duration</t>
-  </si>
-  <si>
     <t>Usual number of hours of sleep - continuous</t>
   </si>
   <si>
@@ -1245,9 +1030,6 @@
   <si>
     <t xml:space="preserve">(Pilot) Average number of hours of sleep had per night over the last 4 weeks 
 </t>
-  </si>
-  <si>
-    <t>sleep_f1_duration_cat</t>
   </si>
   <si>
     <t>Usual number of hours of sleep - categorical</t>
@@ -1264,9 +1046,6 @@
 9 = 10 hours or more</t>
   </si>
   <si>
-    <t>sleep_f1_difficulties</t>
-  </si>
-  <si>
     <t>Indicator of whether the participant has difficulties sleeping or not</t>
   </si>
   <si>
@@ -1302,9 +1081,6 @@
     <t>incompatible</t>
   </si>
   <si>
-    <t>sed_f1_beh_tv_week_all</t>
-  </si>
-  <si>
     <t>Daily TV viewing during the week</t>
   </si>
   <si>
@@ -1313,19 +1089,10 @@
 3 = More than 3 hours per day</t>
   </si>
   <si>
-    <t>sed_f1_beh_tv_week_days</t>
-  </si>
-  <si>
     <t>Daily TV viewing during week days</t>
   </si>
   <si>
-    <t>sed_f1_beh_tv_weekend_days</t>
-  </si>
-  <si>
     <t>Daily TV viewing during weekend days</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_comp_use</t>
   </si>
   <si>
     <t>Computer use</t>
@@ -1347,34 +1114,22 @@
 11 = 10 hours or more per day</t>
   </si>
   <si>
-    <t>sed_f1_beh_video_games</t>
-  </si>
-  <si>
     <t>Video games</t>
   </si>
   <si>
     <t>Time spent playing video games per day</t>
   </si>
   <si>
-    <t>sed_f1_beh_reading</t>
-  </si>
-  <si>
     <t>Reading</t>
   </si>
   <si>
     <t>Time spent reading per day</t>
   </si>
   <si>
-    <t>sed_f1_beh_total_sitting</t>
-  </si>
-  <si>
     <t>Total sitting time per day</t>
   </si>
   <si>
     <t>Overall time spent sitting per day</t>
-  </si>
-  <si>
-    <t>sed_f1_beh_total_sitting_cat</t>
   </si>
   <si>
     <t>Total sitting time per day - categorical</t>
@@ -1389,9 +1144,6 @@
 3 = Three to less than 5 hours per day ;
 4 = Five to less than 7 hours per day ;
 5 = Seven hours or more per day</t>
-  </si>
-  <si>
-    <t>phy_f1_walking</t>
   </si>
   <si>
     <t>Walking for leisure</t>
@@ -1429,9 +1181,6 @@
     <t>recode(-9=NA; -8=NA; -3=NA; -1=NA; 1=1; 2=1; 3=1; 4=1; 5=2; 6=2; 7=2; 8=3; ELSE=NA)</t>
   </si>
   <si>
-    <t>phy_f1_occupational_pa</t>
-  </si>
-  <si>
     <t>Occupational physical activity</t>
   </si>
   <si>
@@ -1460,9 +1209,6 @@
   </si>
   <si>
     <t>recode(-9=NA; -8=NA; -3=NA; -2=NA; -1=NA; 1=1; 2=2; 3=3; 4=4; ELSE=NA)</t>
-  </si>
-  <si>
-    <t>phy_f1_sport_participation</t>
   </si>
   <si>
     <t>Sport participation</t>
@@ -1514,9 +1260,6 @@
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>phy_f1_active_commuting</t>
-  </si>
-  <si>
     <t>Active commuting</t>
   </si>
   <si>
@@ -1546,9 +1289,6 @@
 b11q30c %in% c(1, 2, 3) | b11q30d %in% c(1, 2, 3) ~ 1L; 
 b11q30c == 4 &amp; b11q30d == 4 ~ 0L; 
 ELSE ~ NA_integer_)</t>
-  </si>
-  <si>
-    <t>phy_f1_leisure_time</t>
   </si>
   <si>
     <t>Leisure-time physical activity, including sport</t>
@@ -1615,9 +1355,6 @@
 ELSE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>phy_f1_mobility_limitation_SF36</t>
-  </si>
-  <si>
     <t>Physical function SF36 subscale score</t>
   </si>
   <si>
@@ -1637,9 +1374,6 @@
 </t>
   </si>
   <si>
-    <t>phy_f1_SF36_nb_items</t>
-  </si>
-  <si>
     <t>Number of non-missing items</t>
   </si>
   <si>
@@ -1647,18 +1381,6 @@
   </si>
   <si>
     <t>items</t>
-  </si>
-  <si>
-    <t>death_f1_status</t>
-  </si>
-  <si>
-    <t>Death status</t>
-  </si>
-  <si>
-    <t>death_f1_date</t>
-  </si>
-  <si>
-    <t>Death date</t>
   </si>
   <si>
     <t>b11hlthgn</t>
@@ -1846,6 +1568,275 @@
 select(.,temp_b11q16a, temp_b11q16b, temp_b11q16c, temp_b11q16d, temp_b11q16e, 
 temp_b11q16f, temp_b11q16g, temp_b11q16h, temp_b11q16i, temp_b11q16j), 
 na.rm = TRUE))</t>
+  </si>
+  <si>
+    <t>adm_date</t>
+  </si>
+  <si>
+    <t>sdc_sex</t>
+  </si>
+  <si>
+    <t>sdc_age</t>
+  </si>
+  <si>
+    <t>sdc_education</t>
+  </si>
+  <si>
+    <t>sdc_employment_status</t>
+  </si>
+  <si>
+    <t>sdc_employment_pattern</t>
+  </si>
+  <si>
+    <t>sdc_work_hours</t>
+  </si>
+  <si>
+    <t>sdc_employment_description</t>
+  </si>
+  <si>
+    <t>sdc_retirement_status</t>
+  </si>
+  <si>
+    <t>sdc_married</t>
+  </si>
+  <si>
+    <t>sdc_relationship</t>
+  </si>
+  <si>
+    <t>sdc_location</t>
+  </si>
+  <si>
+    <t>pm_height</t>
+  </si>
+  <si>
+    <t>pm_height_method</t>
+  </si>
+  <si>
+    <t>pm_weight</t>
+  </si>
+  <si>
+    <t>pm_weight_method</t>
+  </si>
+  <si>
+    <t>pm_bmi</t>
+  </si>
+  <si>
+    <t>pm_waist_circ</t>
+  </si>
+  <si>
+    <t>pm_waist_circ_method</t>
+  </si>
+  <si>
+    <t>pm_bodyfat_perc</t>
+  </si>
+  <si>
+    <t>pm_bodyfat_perc_method</t>
+  </si>
+  <si>
+    <t>pm_systo_bp</t>
+  </si>
+  <si>
+    <t>pm_diasto_bp</t>
+  </si>
+  <si>
+    <t>pm_resting_heart_rate</t>
+  </si>
+  <si>
+    <t>pm_cardiorespiratoy_fitness</t>
+  </si>
+  <si>
+    <t>lab_blood_fasting</t>
+  </si>
+  <si>
+    <t>lab_red_blood_cell_count</t>
+  </si>
+  <si>
+    <t>lab_HbA1c</t>
+  </si>
+  <si>
+    <t>lab_chol_tot</t>
+  </si>
+  <si>
+    <t>lab_chol_hdl</t>
+  </si>
+  <si>
+    <t>lab_chol_ldl</t>
+  </si>
+  <si>
+    <t>lab_chol_ldl_calculated</t>
+  </si>
+  <si>
+    <t>lab_trigly</t>
+  </si>
+  <si>
+    <t>lab_c_reac_pro</t>
+  </si>
+  <si>
+    <t>nut_fruit_quantity</t>
+  </si>
+  <si>
+    <t>nut_fruit_frequency</t>
+  </si>
+  <si>
+    <t>nut_vegetable_quantity</t>
+  </si>
+  <si>
+    <t>nut_vegetable_frequency</t>
+  </si>
+  <si>
+    <t>nut_energy_tot</t>
+  </si>
+  <si>
+    <t>alc_alcohol</t>
+  </si>
+  <si>
+    <t>alc_alcohol_frequency</t>
+  </si>
+  <si>
+    <t>smk_smoking_status</t>
+  </si>
+  <si>
+    <t>smk_smoking_frequency</t>
+  </si>
+  <si>
+    <t>smk_smoking_quantity</t>
+  </si>
+  <si>
+    <t>lsb_rated_health</t>
+  </si>
+  <si>
+    <t>dis_cvd</t>
+  </si>
+  <si>
+    <t>dis_musculoskeletal</t>
+  </si>
+  <si>
+    <t>dis_diabetes</t>
+  </si>
+  <si>
+    <t>dis_diabetes_type</t>
+  </si>
+  <si>
+    <t>dis_cancer</t>
+  </si>
+  <si>
+    <t>dis_hypercholesteromia</t>
+  </si>
+  <si>
+    <t>med_lipid_lowering</t>
+  </si>
+  <si>
+    <t>med_blood_pressure</t>
+  </si>
+  <si>
+    <t>med_diabetes</t>
+  </si>
+  <si>
+    <t>cog_depression</t>
+  </si>
+  <si>
+    <t>cog_dep_cesd20</t>
+  </si>
+  <si>
+    <t>cog_dep_cesd10</t>
+  </si>
+  <si>
+    <t>cog_dep_malaise</t>
+  </si>
+  <si>
+    <t>cog_dep_kessler</t>
+  </si>
+  <si>
+    <t>cog_dep_phq9</t>
+  </si>
+  <si>
+    <t>cog_mci_mmse_score</t>
+  </si>
+  <si>
+    <t>cog_mci_moca_score</t>
+  </si>
+  <si>
+    <t>cog_alzheimers_dementia</t>
+  </si>
+  <si>
+    <t>sleep_duration</t>
+  </si>
+  <si>
+    <t>sleep_duration_cat</t>
+  </si>
+  <si>
+    <t>sleep_difficulties</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_week_all</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_week_days</t>
+  </si>
+  <si>
+    <t>sed_beh_tv_weekend_days</t>
+  </si>
+  <si>
+    <t>sed_beh_comp_use</t>
+  </si>
+  <si>
+    <t>sed_beh_video_games</t>
+  </si>
+  <si>
+    <t>sed_beh_reading</t>
+  </si>
+  <si>
+    <t>sed_beh_total_sitting</t>
+  </si>
+  <si>
+    <t>sed_beh_total_sitting_cat</t>
+  </si>
+  <si>
+    <t>phy_walking</t>
+  </si>
+  <si>
+    <t>phy_occupational_pa</t>
+  </si>
+  <si>
+    <t>phy_sport_participation</t>
+  </si>
+  <si>
+    <t>phy_active_commuting</t>
+  </si>
+  <si>
+    <t>phy_leisure_time</t>
+  </si>
+  <si>
+    <t>phy_mobility_limitation_SF36</t>
+  </si>
+  <si>
+    <t>phy_SF36_nb_items</t>
+  </si>
+  <si>
+    <t>b11drink01; 
+b11drink02; 
+b11drink03; 
+b11drink04; 
+b11drink05; 
+b11drink06; 
+b11drink07; 
+b11drink08; 
+b11beern; 
+b11beers; 
+b11spiris; 
+b11sherry; 
+b11wine; 
+b11winebt; 
+b11wings1; 
+b11wings2; 
+b11wings3; 
+b11winlag; 
+b11winstg; 
+b11winsmg; 
+b11alcopp</t>
+  </si>
+  <si>
+    <t>BCS_test</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1904,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2229,14 +2220,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9A9556-6A71-4D41-957B-24579A577B61}">
-  <dimension ref="A1:AD86"/>
+  <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q84" sqref="Q84"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
@@ -2443,58 +2434,58 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" t="s">
         <v>57</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" t="s">
         <v>60</v>
-      </c>
-      <c r="S4" t="s">
-        <v>61</v>
       </c>
       <c r="T4" t="s">
         <v>41</v>
       </c>
       <c r="U4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" t="s">
         <v>62</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" x14ac:dyDescent="0.25">
@@ -2505,34 +2496,34 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
       </c>
       <c r="P5" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s">
         <v>41</v>
@@ -2541,10 +2532,10 @@
         <v>42</v>
       </c>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -2555,40 +2546,40 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" t="s">
         <v>80</v>
-      </c>
-      <c r="M6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" t="s">
-        <v>83</v>
       </c>
       <c r="T6" t="s">
         <v>41</v>
@@ -2611,40 +2602,40 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="E7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="T7" t="s">
         <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
@@ -2655,40 +2646,40 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="T8" t="s">
         <v>41</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
@@ -2699,40 +2690,40 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
         <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2743,31 +2734,31 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>359</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="T10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="255" x14ac:dyDescent="0.25">
@@ -2778,40 +2769,40 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>360</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P11" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="T11" t="s">
         <v>41</v>
@@ -2820,10 +2811,10 @@
         <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
@@ -2834,40 +2825,40 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>361</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="T12" t="s">
         <v>41</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="345" x14ac:dyDescent="0.25">
@@ -2878,52 +2869,52 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>362</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P13" t="s">
         <v>39</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="T13" t="s">
         <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="345" x14ac:dyDescent="0.25">
@@ -2934,49 +2925,49 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>363</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P14" t="s">
         <v>39</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="T14" t="s">
         <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
@@ -2987,40 +2978,40 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="T15" t="s">
         <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="60" x14ac:dyDescent="0.25">
@@ -3031,40 +3022,40 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>365</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="T16" t="s">
         <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V16" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="Z16" t="s">
-        <v>414</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -3075,37 +3066,37 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>366</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="T17" t="s">
         <v>41</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="105" x14ac:dyDescent="0.25">
@@ -3116,43 +3107,43 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="T18" t="s">
         <v>41</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Z18" t="s">
-        <v>414</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="105" x14ac:dyDescent="0.25">
@@ -3163,40 +3154,40 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="T19" t="s">
         <v>41</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3207,40 +3198,40 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>369</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s">
         <v>41</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -3251,34 +3242,34 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="T21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3289,34 +3280,34 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
       </c>
       <c r="T22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V22" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -3327,34 +3318,34 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>372</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="T23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -3365,13 +3356,13 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -3380,16 +3371,16 @@
         <v>47</v>
       </c>
       <c r="T24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -3400,34 +3391,34 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
       </c>
       <c r="T25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -3438,34 +3429,34 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>375</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
       <c r="T26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -3476,34 +3467,34 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>376</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
       <c r="T27" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U27" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V27" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -3514,34 +3505,34 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>377</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
       <c r="T28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U28" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3552,34 +3543,34 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
         <v>46</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
       <c r="T29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3590,34 +3581,34 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>379</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
       </c>
       <c r="T30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3628,34 +3619,34 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G31" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
         <v>47</v>
       </c>
       <c r="T31" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V31" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3666,34 +3657,34 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="J32" t="s">
         <v>47</v>
       </c>
       <c r="T32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -3704,34 +3695,34 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>382</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
       </c>
       <c r="T33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -3742,34 +3733,34 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="T34" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U34" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V34" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -3780,34 +3771,34 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>384</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="T35" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U35" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V35" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -3818,34 +3809,34 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>385</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="J36" t="s">
         <v>47</v>
       </c>
       <c r="T36" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U36" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V36" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -3856,34 +3847,34 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
       </c>
       <c r="T37" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U37" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V37" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -3894,34 +3885,34 @@
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="J38" t="s">
         <v>47</v>
       </c>
       <c r="T38" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U38" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V38" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3932,34 +3923,34 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="J39" t="s">
         <v>47</v>
       </c>
       <c r="T39" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U39" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V39" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -3970,34 +3961,34 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G40" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="J40" t="s">
         <v>47</v>
       </c>
       <c r="T40" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U40" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V40" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4008,34 +3999,34 @@
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>390</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F41" t="s">
         <v>46</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="J41" t="s">
         <v>47</v>
       </c>
       <c r="T41" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U41" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V41" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -4046,34 +4037,34 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>391</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="E42" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J42" t="s">
         <v>47</v>
       </c>
       <c r="T42" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V42" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="315" x14ac:dyDescent="0.25">
@@ -4084,40 +4075,40 @@
         <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>242</v>
+        <v>434</v>
       </c>
       <c r="T43" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U43" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="V43" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W43" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="X43" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="Z43" t="s">
-        <v>415</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="165" x14ac:dyDescent="0.25">
@@ -4128,40 +4119,40 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>393</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
         <v>46</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="J44" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="K44" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="T44" t="s">
         <v>41</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="225" x14ac:dyDescent="0.25">
@@ -4172,49 +4163,49 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
         <v>46</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="J45" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="L45" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="M45" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="P45" t="s">
         <v>39</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="T45" t="s">
         <v>41</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4225,34 +4216,34 @@
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>395</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="F46" t="s">
         <v>46</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
       <c r="T46" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U46" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V46" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4263,37 +4254,37 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="D47" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="E47" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="J47" t="s">
-        <v>427</v>
+        <v>341</v>
       </c>
       <c r="K47" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="L47" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="M47" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="P47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="T47" t="s">
         <v>41</v>
@@ -4302,10 +4293,10 @@
         <v>42</v>
       </c>
       <c r="V47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>428</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="75" x14ac:dyDescent="0.25">
@@ -4316,40 +4307,40 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>270</v>
+        <v>397</v>
       </c>
       <c r="D48" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J48" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="K48" t="s">
-        <v>411</v>
+        <v>325</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="T48" t="s">
         <v>41</v>
       </c>
       <c r="U48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>413</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="120" x14ac:dyDescent="0.25">
@@ -4360,46 +4351,46 @@
         <v>30</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="F49" t="s">
         <v>46</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="S49" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="T49" t="s">
         <v>41</v>
       </c>
       <c r="U49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V49" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>429</v>
+        <v>343</v>
       </c>
       <c r="X49" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="Z49" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4410,34 +4401,34 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="E50" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="F50" t="s">
         <v>46</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J50" t="s">
         <v>47</v>
       </c>
       <c r="T50" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U50" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V50" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4448,25 +4439,25 @@
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="D51" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F51" t="s">
         <v>46</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J51" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="K51" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="T51" t="s">
         <v>41</v>
@@ -4475,10 +4466,10 @@
         <v>42</v>
       </c>
       <c r="V51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4489,34 +4480,34 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="D52" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
         <v>46</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="T52" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U52" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V52" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="120" x14ac:dyDescent="0.25">
@@ -4527,25 +4518,25 @@
         <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="D53" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E53" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="F53" t="s">
         <v>46</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="K53" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="T53" t="s">
         <v>41</v>
@@ -4554,45 +4545,45 @@
         <v>42</v>
       </c>
       <c r="V53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="Z53" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="D54" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="E54" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="F54" t="s">
         <v>46</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>431</v>
+        <v>345</v>
       </c>
       <c r="K54" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="T54" t="s">
         <v>41</v>
@@ -4601,185 +4592,185 @@
         <v>42</v>
       </c>
       <c r="V54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>417</v>
+        <v>331</v>
       </c>
       <c r="X54" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="Z54" t="s">
-        <v>416</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="D55" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="E55" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="F55" t="s">
         <v>46</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J55" t="s">
         <v>47</v>
       </c>
       <c r="T55" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U55" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V55" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="D56" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="F56" t="s">
         <v>46</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
       </c>
       <c r="T56" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U56" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V56" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="F57" t="s">
         <v>46</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J57" t="s">
         <v>47</v>
       </c>
       <c r="T57" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U57" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V57" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="D58" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="F58" t="s">
         <v>46</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J58" t="s">
         <v>47</v>
       </c>
       <c r="T58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U58" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="D59" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="E59" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="F59" t="s">
         <v>46</v>
@@ -4788,33 +4779,33 @@
         <v>47</v>
       </c>
       <c r="T59" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U59" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V59" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="D60" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="E60" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="F60" t="s">
         <v>46</v>
@@ -4823,33 +4814,33 @@
         <v>47</v>
       </c>
       <c r="T60" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U60" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V60" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="F61" t="s">
         <v>46</v>
@@ -4858,33 +4849,33 @@
         <v>47</v>
       </c>
       <c r="T61" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U61" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V61" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="D62" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
         <v>46</v>
@@ -4893,33 +4884,33 @@
         <v>47</v>
       </c>
       <c r="T62" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U62" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V62" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="D63" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="F63" t="s">
         <v>46</v>
@@ -4928,33 +4919,33 @@
         <v>47</v>
       </c>
       <c r="T63" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U63" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V63" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
       <c r="D64" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="E64" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="F64" t="s">
         <v>46</v>
@@ -4963,33 +4954,33 @@
         <v>47</v>
       </c>
       <c r="T64" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U64" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V64" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
         <v>46</v>
@@ -4998,877 +4989,4249 @@
         <v>47</v>
       </c>
       <c r="T65" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U65" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V65" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="D66" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="E66" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="F66" t="s">
         <v>46</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="T66" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U66" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="V66" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="D67" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="E67" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="F67" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>432</v>
+        <v>346</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="T67" t="s">
         <v>41</v>
       </c>
       <c r="U67" t="s">
+        <v>61</v>
+      </c>
+      <c r="V67" t="s">
         <v>62</v>
       </c>
-      <c r="V67" t="s">
-        <v>63</v>
-      </c>
       <c r="W67" s="1" t="s">
-        <v>434</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="D68" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="E68" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="F68" t="s">
         <v>46</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>433</v>
+        <v>347</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="T68" t="s">
         <v>41</v>
       </c>
       <c r="U68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V68" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>435</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="255" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="F69" t="s">
         <v>46</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>336</v>
+        <v>269</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="L69" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="P69" t="s">
         <v>39</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>340</v>
+        <v>273</v>
       </c>
       <c r="T69" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U69" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="V69" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="D70" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="F70" t="s">
         <v>46</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="T70" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U70" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="V70" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="285" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="D71" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="F71" t="s">
         <v>46</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="J71" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>420</v>
+        <v>334</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="T71" t="s">
         <v>41</v>
       </c>
       <c r="U71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="285" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="D72" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="F72" t="s">
         <v>46</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="J72" t="s">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>424</v>
+        <v>338</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="T72" t="s">
         <v>41</v>
       </c>
       <c r="U72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="330" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="F73" t="s">
         <v>46</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="J73" t="s">
         <v>47</v>
       </c>
       <c r="T73" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U73" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="V73" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="E74" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="F74" t="s">
         <v>46</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="J74" t="s">
         <v>47</v>
       </c>
       <c r="T74" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U74" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="V74" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="D75" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="F75" t="s">
         <v>46</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="J75" t="s">
         <v>47</v>
       </c>
       <c r="T75" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U75" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="V75" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="D76" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="E76" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="F76" t="s">
         <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="J76" t="s">
         <v>47</v>
       </c>
       <c r="T76" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U76" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="V76" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="165" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="D77" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="E77" t="s">
-        <v>364</v>
+        <v>289</v>
       </c>
       <c r="F77" t="s">
         <v>46</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
       <c r="T77" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U77" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="V77" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="210" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="D78" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="F78" t="s">
         <v>46</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="J78" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="K78" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="T78" t="s">
         <v>41</v>
       </c>
       <c r="U78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="180" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="D79" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="F79" t="s">
         <v>46</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="J79" t="s">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="K79" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="T79" t="s">
         <v>41</v>
       </c>
       <c r="U79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="390" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="D80" t="s">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="E80" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="F80" t="s">
         <v>46</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="T80" t="s">
         <v>41</v>
       </c>
       <c r="U80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V80" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="150" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="D81" t="s">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="E81" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
         <v>46</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>389</v>
+        <v>310</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>390</v>
+        <v>311</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>391</v>
+        <v>312</v>
       </c>
       <c r="T81" t="s">
         <v>41</v>
       </c>
       <c r="U81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V81" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>392</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="D82" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="E82" t="s">
-        <v>395</v>
+        <v>315</v>
       </c>
       <c r="F82" t="s">
         <v>46</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="T82" t="s">
         <v>41</v>
       </c>
       <c r="U82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V82" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="D83" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="E83" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>436</v>
+        <v>350</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="T83" t="s">
         <v>41</v>
       </c>
       <c r="U83" t="s">
+        <v>61</v>
+      </c>
+      <c r="V83" t="s">
         <v>62</v>
       </c>
-      <c r="V83" t="s">
-        <v>63</v>
-      </c>
       <c r="W83" s="1" t="s">
-        <v>437</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="D84" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="E84" t="s">
-        <v>404</v>
+        <v>322</v>
       </c>
       <c r="F84" t="s">
         <v>46</v>
       </c>
       <c r="G84" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>436</v>
+        <v>350</v>
       </c>
       <c r="T84" t="s">
         <v>41</v>
       </c>
       <c r="U84" t="s">
+        <v>61</v>
+      </c>
+      <c r="V84" t="s">
         <v>62</v>
       </c>
-      <c r="V84" t="s">
-        <v>63</v>
-      </c>
       <c r="W84" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>435</v>
       </c>
       <c r="C85" t="s">
-        <v>406</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
-        <v>407</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>407</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="K85" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" t="s">
+        <v>37</v>
+      </c>
+      <c r="M85" t="s">
+        <v>36</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P85" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>40</v>
       </c>
       <c r="T85" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="U85" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="V85" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>435</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="J86" t="s">
+        <v>47</v>
+      </c>
+      <c r="T86" t="s">
+        <v>41</v>
+      </c>
+      <c r="U86" t="s">
+        <v>42</v>
+      </c>
+      <c r="V86" t="s">
+        <v>48</v>
+      </c>
+      <c r="W86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="210" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>435</v>
+      </c>
+      <c r="C87" t="s">
+        <v>353</v>
+      </c>
+      <c r="D87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" t="s">
+        <v>52</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N87" t="s">
+        <v>57</v>
+      </c>
+      <c r="O87" t="s">
+        <v>57</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S87" t="s">
+        <v>60</v>
+      </c>
+      <c r="T87" t="s">
+        <v>41</v>
+      </c>
+      <c r="U87" t="s">
+        <v>61</v>
+      </c>
+      <c r="V87" t="s">
+        <v>62</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" t="s">
+        <v>354</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L88" t="s">
+        <v>69</v>
+      </c>
+      <c r="P88" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T88" t="s">
+        <v>41</v>
+      </c>
+      <c r="U88" t="s">
+        <v>42</v>
+      </c>
+      <c r="V88" t="s">
+        <v>71</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>435</v>
+      </c>
+      <c r="C89" t="s">
+        <v>355</v>
+      </c>
+      <c r="D89" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" t="s">
+        <v>75</v>
+      </c>
+      <c r="J89" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89" t="s">
+        <v>76</v>
+      </c>
+      <c r="L89" t="s">
+        <v>77</v>
+      </c>
+      <c r="M89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P89" t="s">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s">
+        <v>75</v>
+      </c>
+      <c r="S89" t="s">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s">
+        <v>41</v>
+      </c>
+      <c r="U89" t="s">
+        <v>42</v>
+      </c>
+      <c r="V89" t="s">
+        <v>48</v>
+      </c>
+      <c r="W89" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>435</v>
+      </c>
+      <c r="C90" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J90" t="s">
+        <v>84</v>
+      </c>
+      <c r="K90" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T90" t="s">
+        <v>41</v>
+      </c>
+      <c r="U90" t="s">
+        <v>61</v>
+      </c>
+      <c r="V90" t="s">
+        <v>71</v>
+      </c>
+      <c r="W90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="91" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>435</v>
+      </c>
+      <c r="C91" t="s">
+        <v>357</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J91" t="s">
+        <v>91</v>
+      </c>
+      <c r="K91" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T91" t="s">
+        <v>41</v>
+      </c>
+      <c r="U91" t="s">
+        <v>61</v>
+      </c>
+      <c r="V91" t="s">
+        <v>71</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>435</v>
+      </c>
+      <c r="C92" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" t="s">
+        <v>96</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J92" t="s">
+        <v>91</v>
+      </c>
+      <c r="K92" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T92" t="s">
+        <v>41</v>
+      </c>
+      <c r="U92" t="s">
+        <v>61</v>
+      </c>
+      <c r="V92" t="s">
+        <v>71</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>435</v>
+      </c>
+      <c r="C93" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" t="s">
+        <v>101</v>
+      </c>
+      <c r="J93" t="s">
+        <v>47</v>
+      </c>
+      <c r="T93" t="s">
+        <v>102</v>
+      </c>
+      <c r="U93" t="s">
+        <v>103</v>
+      </c>
+      <c r="V93" t="s">
+        <v>102</v>
+      </c>
+      <c r="W93" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="255" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>435</v>
+      </c>
+      <c r="C94" t="s">
+        <v>360</v>
+      </c>
+      <c r="D94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" t="s">
+        <v>106</v>
+      </c>
+      <c r="K94" t="s">
+        <v>107</v>
+      </c>
+      <c r="L94" t="s">
+        <v>108</v>
+      </c>
+      <c r="M94" t="s">
+        <v>109</v>
+      </c>
+      <c r="N94" t="s">
+        <v>110</v>
+      </c>
+      <c r="O94" t="s">
+        <v>111</v>
+      </c>
+      <c r="P94" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T94" t="s">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s">
+        <v>42</v>
+      </c>
+      <c r="V94" t="s">
+        <v>71</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>435</v>
+      </c>
+      <c r="C95" t="s">
+        <v>361</v>
+      </c>
+      <c r="D95" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" t="s">
+        <v>115</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J95" t="s">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T95" t="s">
+        <v>41</v>
+      </c>
+      <c r="U95" t="s">
+        <v>61</v>
+      </c>
+      <c r="V95" t="s">
+        <v>71</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="345" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>435</v>
+      </c>
+      <c r="C96" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" t="s">
+        <v>119</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J96" t="s">
+        <v>121</v>
+      </c>
+      <c r="K96" t="s">
+        <v>122</v>
+      </c>
+      <c r="L96" t="s">
+        <v>123</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P96" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S96" t="s">
+        <v>126</v>
+      </c>
+      <c r="T96" t="s">
+        <v>41</v>
+      </c>
+      <c r="U96" t="s">
+        <v>61</v>
+      </c>
+      <c r="V96" t="s">
+        <v>71</v>
+      </c>
+      <c r="W96" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="345" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>435</v>
+      </c>
+      <c r="C97" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J97" t="s">
+        <v>121</v>
+      </c>
+      <c r="K97" t="s">
+        <v>122</v>
+      </c>
+      <c r="L97" t="s">
+        <v>123</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P97" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T97" t="s">
+        <v>41</v>
+      </c>
+      <c r="U97" t="s">
+        <v>61</v>
+      </c>
+      <c r="V97" t="s">
+        <v>71</v>
+      </c>
+      <c r="W97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" t="s">
+        <v>364</v>
+      </c>
+      <c r="D98" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+      <c r="K98" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T98" t="s">
+        <v>41</v>
+      </c>
+      <c r="U98" t="s">
+        <v>61</v>
+      </c>
+      <c r="V98" t="s">
+        <v>71</v>
+      </c>
+      <c r="W98" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>435</v>
+      </c>
+      <c r="C99" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" t="s">
+        <v>138</v>
+      </c>
+      <c r="F99" t="s">
+        <v>101</v>
+      </c>
+      <c r="G99" t="s">
+        <v>139</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T99" t="s">
+        <v>41</v>
+      </c>
+      <c r="U99" t="s">
+        <v>61</v>
+      </c>
+      <c r="V99" t="s">
+        <v>142</v>
+      </c>
+      <c r="W99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>435</v>
+      </c>
+      <c r="C100" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" t="s">
+        <v>144</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T100" t="s">
+        <v>41</v>
+      </c>
+      <c r="U100" t="s">
+        <v>61</v>
+      </c>
+      <c r="V100" t="s">
+        <v>142</v>
+      </c>
+      <c r="W100" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>435</v>
+      </c>
+      <c r="C101" t="s">
+        <v>367</v>
+      </c>
+      <c r="D101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" t="s">
+        <v>101</v>
+      </c>
+      <c r="G101" t="s">
+        <v>148</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T101" t="s">
+        <v>41</v>
+      </c>
+      <c r="U101" t="s">
+        <v>61</v>
+      </c>
+      <c r="V101" t="s">
+        <v>142</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>435</v>
+      </c>
+      <c r="C102" t="s">
+        <v>368</v>
+      </c>
+      <c r="D102" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T102" t="s">
+        <v>41</v>
+      </c>
+      <c r="U102" t="s">
+        <v>61</v>
+      </c>
+      <c r="V102" t="s">
+        <v>142</v>
+      </c>
+      <c r="W102" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>435</v>
+      </c>
+      <c r="C103" t="s">
+        <v>369</v>
+      </c>
+      <c r="D103" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" t="s">
+        <v>155</v>
+      </c>
+      <c r="J103" t="s">
+        <v>156</v>
+      </c>
+      <c r="K103" t="s">
+        <v>157</v>
+      </c>
+      <c r="P103" t="s">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s">
+        <v>41</v>
+      </c>
+      <c r="U103" t="s">
+        <v>61</v>
+      </c>
+      <c r="V103" t="s">
+        <v>142</v>
+      </c>
+      <c r="W103" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>435</v>
+      </c>
+      <c r="C104" t="s">
+        <v>370</v>
+      </c>
+      <c r="D104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" t="s">
+        <v>159</v>
+      </c>
+      <c r="F104" t="s">
+        <v>101</v>
+      </c>
+      <c r="G104" t="s">
+        <v>139</v>
+      </c>
+      <c r="J104" t="s">
+        <v>47</v>
+      </c>
+      <c r="T104" t="s">
+        <v>102</v>
+      </c>
+      <c r="U104" t="s">
+        <v>103</v>
+      </c>
+      <c r="V104" t="s">
+        <v>102</v>
+      </c>
+      <c r="W104" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>435</v>
+      </c>
+      <c r="C105" t="s">
+        <v>371</v>
+      </c>
+      <c r="D105" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J105" t="s">
+        <v>47</v>
+      </c>
+      <c r="T105" t="s">
+        <v>102</v>
+      </c>
+      <c r="U105" t="s">
+        <v>103</v>
+      </c>
+      <c r="V105" t="s">
+        <v>102</v>
+      </c>
+      <c r="W105" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>435</v>
+      </c>
+      <c r="C106" t="s">
+        <v>372</v>
+      </c>
+      <c r="D106" t="s">
+        <v>161</v>
+      </c>
+      <c r="E106" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" t="s">
+        <v>101</v>
+      </c>
+      <c r="G106" t="s">
+        <v>162</v>
+      </c>
+      <c r="J106" t="s">
+        <v>47</v>
+      </c>
+      <c r="T106" t="s">
+        <v>102</v>
+      </c>
+      <c r="U106" t="s">
+        <v>103</v>
+      </c>
+      <c r="V106" t="s">
+        <v>102</v>
+      </c>
+      <c r="W106" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>435</v>
+      </c>
+      <c r="C107" t="s">
+        <v>373</v>
+      </c>
+      <c r="D107" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" t="s">
+        <v>47</v>
+      </c>
+      <c r="T107" t="s">
+        <v>102</v>
+      </c>
+      <c r="U107" t="s">
+        <v>103</v>
+      </c>
+      <c r="V107" t="s">
+        <v>102</v>
+      </c>
+      <c r="W107" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>24</v>
+      </c>
+      <c r="B108" t="s">
+        <v>435</v>
+      </c>
+      <c r="C108" t="s">
+        <v>374</v>
+      </c>
+      <c r="D108" t="s">
+        <v>164</v>
+      </c>
+      <c r="E108" t="s">
+        <v>165</v>
+      </c>
+      <c r="F108" t="s">
+        <v>101</v>
+      </c>
+      <c r="G108" t="s">
+        <v>166</v>
+      </c>
+      <c r="J108" t="s">
+        <v>47</v>
+      </c>
+      <c r="T108" t="s">
+        <v>102</v>
+      </c>
+      <c r="U108" t="s">
+        <v>103</v>
+      </c>
+      <c r="V108" t="s">
+        <v>102</v>
+      </c>
+      <c r="W108" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>375</v>
+      </c>
+      <c r="D109" t="s">
+        <v>167</v>
+      </c>
+      <c r="E109" t="s">
+        <v>168</v>
+      </c>
+      <c r="F109" t="s">
+        <v>101</v>
+      </c>
+      <c r="G109" t="s">
+        <v>166</v>
+      </c>
+      <c r="J109" t="s">
+        <v>47</v>
+      </c>
+      <c r="T109" t="s">
+        <v>102</v>
+      </c>
+      <c r="U109" t="s">
+        <v>103</v>
+      </c>
+      <c r="V109" t="s">
+        <v>102</v>
+      </c>
+      <c r="W109" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>435</v>
+      </c>
+      <c r="C110" t="s">
+        <v>376</v>
+      </c>
+      <c r="D110" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G110" t="s">
+        <v>170</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="T110" t="s">
+        <v>102</v>
+      </c>
+      <c r="U110" t="s">
+        <v>103</v>
+      </c>
+      <c r="V110" t="s">
+        <v>102</v>
+      </c>
+      <c r="W110" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>435</v>
+      </c>
+      <c r="C111" t="s">
+        <v>377</v>
+      </c>
+      <c r="D111" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" t="s">
+        <v>171</v>
+      </c>
+      <c r="F111" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" t="s">
+        <v>172</v>
+      </c>
+      <c r="J111" t="s">
+        <v>47</v>
+      </c>
+      <c r="T111" t="s">
+        <v>102</v>
+      </c>
+      <c r="U111" t="s">
+        <v>103</v>
+      </c>
+      <c r="V111" t="s">
+        <v>102</v>
+      </c>
+      <c r="W111" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>435</v>
+      </c>
+      <c r="C112" t="s">
+        <v>378</v>
+      </c>
+      <c r="D112" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" t="s">
+        <v>173</v>
+      </c>
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J112" t="s">
+        <v>47</v>
+      </c>
+      <c r="T112" t="s">
+        <v>102</v>
+      </c>
+      <c r="U112" t="s">
+        <v>103</v>
+      </c>
+      <c r="V112" t="s">
+        <v>102</v>
+      </c>
+      <c r="W112" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>29</v>
+      </c>
+      <c r="B113" t="s">
+        <v>435</v>
+      </c>
+      <c r="C113" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" t="s">
+        <v>175</v>
+      </c>
+      <c r="E113" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113" t="s">
+        <v>176</v>
+      </c>
+      <c r="J113" t="s">
+        <v>47</v>
+      </c>
+      <c r="T113" t="s">
+        <v>102</v>
+      </c>
+      <c r="U113" t="s">
+        <v>103</v>
+      </c>
+      <c r="V113" t="s">
+        <v>102</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>30</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B114" t="s">
+        <v>435</v>
+      </c>
+      <c r="C114" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" t="s">
+        <v>177</v>
+      </c>
+      <c r="E114" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" t="s">
+        <v>101</v>
+      </c>
+      <c r="G114" t="s">
+        <v>178</v>
+      </c>
+      <c r="J114" t="s">
+        <v>47</v>
+      </c>
+      <c r="T114" t="s">
+        <v>102</v>
+      </c>
+      <c r="U114" t="s">
+        <v>103</v>
+      </c>
+      <c r="V114" t="s">
+        <v>102</v>
+      </c>
+      <c r="W114" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>435</v>
+      </c>
+      <c r="C115" t="s">
+        <v>381</v>
+      </c>
+      <c r="D115" t="s">
+        <v>179</v>
+      </c>
+      <c r="E115" t="s">
+        <v>179</v>
+      </c>
+      <c r="F115" t="s">
+        <v>101</v>
+      </c>
+      <c r="G115" t="s">
+        <v>180</v>
+      </c>
+      <c r="J115" t="s">
+        <v>47</v>
+      </c>
+      <c r="T115" t="s">
+        <v>102</v>
+      </c>
+      <c r="U115" t="s">
+        <v>103</v>
+      </c>
+      <c r="V115" t="s">
+        <v>102</v>
+      </c>
+      <c r="W115" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>435</v>
+      </c>
+      <c r="C116" t="s">
+        <v>382</v>
+      </c>
+      <c r="D116" t="s">
+        <v>181</v>
+      </c>
+      <c r="E116" t="s">
+        <v>181</v>
+      </c>
+      <c r="F116" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116" t="s">
+        <v>180</v>
+      </c>
+      <c r="J116" t="s">
+        <v>47</v>
+      </c>
+      <c r="T116" t="s">
+        <v>102</v>
+      </c>
+      <c r="U116" t="s">
+        <v>103</v>
+      </c>
+      <c r="V116" t="s">
+        <v>102</v>
+      </c>
+      <c r="W116" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>33</v>
+      </c>
+      <c r="B117" t="s">
+        <v>435</v>
+      </c>
+      <c r="C117" t="s">
+        <v>383</v>
+      </c>
+      <c r="D117" t="s">
+        <v>182</v>
+      </c>
+      <c r="E117" t="s">
+        <v>182</v>
+      </c>
+      <c r="F117" t="s">
+        <v>101</v>
+      </c>
+      <c r="G117" t="s">
+        <v>180</v>
+      </c>
+      <c r="J117" t="s">
+        <v>47</v>
+      </c>
+      <c r="T117" t="s">
+        <v>102</v>
+      </c>
+      <c r="U117" t="s">
+        <v>103</v>
+      </c>
+      <c r="V117" t="s">
+        <v>102</v>
+      </c>
+      <c r="W117" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>34</v>
+      </c>
+      <c r="B118" t="s">
+        <v>435</v>
+      </c>
+      <c r="C118" t="s">
+        <v>384</v>
+      </c>
+      <c r="D118" t="s">
+        <v>183</v>
+      </c>
+      <c r="E118" t="s">
+        <v>183</v>
+      </c>
+      <c r="F118" t="s">
+        <v>101</v>
+      </c>
+      <c r="G118" t="s">
+        <v>180</v>
+      </c>
+      <c r="J118" t="s">
+        <v>47</v>
+      </c>
+      <c r="T118" t="s">
+        <v>102</v>
+      </c>
+      <c r="U118" t="s">
+        <v>103</v>
+      </c>
+      <c r="V118" t="s">
+        <v>102</v>
+      </c>
+      <c r="W118" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>35</v>
+      </c>
+      <c r="B119" t="s">
+        <v>435</v>
+      </c>
+      <c r="C119" t="s">
+        <v>385</v>
+      </c>
+      <c r="D119" t="s">
+        <v>184</v>
+      </c>
+      <c r="E119" t="s">
+        <v>184</v>
+      </c>
+      <c r="F119" t="s">
+        <v>101</v>
+      </c>
+      <c r="G119" t="s">
+        <v>180</v>
+      </c>
+      <c r="J119" t="s">
+        <v>47</v>
+      </c>
+      <c r="T119" t="s">
+        <v>102</v>
+      </c>
+      <c r="U119" t="s">
+        <v>103</v>
+      </c>
+      <c r="V119" t="s">
+        <v>102</v>
+      </c>
+      <c r="W119" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>435</v>
+      </c>
+      <c r="C120" t="s">
+        <v>386</v>
+      </c>
+      <c r="D120" t="s">
+        <v>185</v>
+      </c>
+      <c r="E120" t="s">
+        <v>185</v>
+      </c>
+      <c r="F120" t="s">
+        <v>101</v>
+      </c>
+      <c r="G120" t="s">
+        <v>186</v>
+      </c>
+      <c r="J120" t="s">
+        <v>47</v>
+      </c>
+      <c r="T120" t="s">
+        <v>102</v>
+      </c>
+      <c r="U120" t="s">
+        <v>103</v>
+      </c>
+      <c r="V120" t="s">
+        <v>102</v>
+      </c>
+      <c r="W120" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>435</v>
+      </c>
+      <c r="C121" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" t="s">
+        <v>187</v>
+      </c>
+      <c r="E121" t="s">
+        <v>188</v>
+      </c>
+      <c r="F121" t="s">
+        <v>101</v>
+      </c>
+      <c r="G121" t="s">
+        <v>189</v>
+      </c>
+      <c r="J121" t="s">
+        <v>47</v>
+      </c>
+      <c r="T121" t="s">
+        <v>102</v>
+      </c>
+      <c r="U121" t="s">
+        <v>103</v>
+      </c>
+      <c r="V121" t="s">
+        <v>102</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>38</v>
+      </c>
+      <c r="B122" t="s">
+        <v>435</v>
+      </c>
+      <c r="C122" t="s">
+        <v>388</v>
+      </c>
+      <c r="D122" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" t="s">
+        <v>191</v>
+      </c>
+      <c r="F122" t="s">
+        <v>46</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J122" t="s">
+        <v>47</v>
+      </c>
+      <c r="T122" t="s">
+        <v>102</v>
+      </c>
+      <c r="U122" t="s">
+        <v>103</v>
+      </c>
+      <c r="V122" t="s">
+        <v>102</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>39</v>
+      </c>
+      <c r="B123" t="s">
+        <v>435</v>
+      </c>
+      <c r="C123" t="s">
+        <v>389</v>
+      </c>
+      <c r="D123" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" t="s">
+        <v>194</v>
+      </c>
+      <c r="F123" t="s">
+        <v>101</v>
+      </c>
+      <c r="G123" t="s">
+        <v>189</v>
+      </c>
+      <c r="J123" t="s">
+        <v>47</v>
+      </c>
+      <c r="T123" t="s">
+        <v>102</v>
+      </c>
+      <c r="U123" t="s">
+        <v>103</v>
+      </c>
+      <c r="V123" t="s">
+        <v>102</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>40</v>
+      </c>
+      <c r="B124" t="s">
+        <v>435</v>
+      </c>
+      <c r="C124" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124" t="s">
+        <v>195</v>
+      </c>
+      <c r="E124" t="s">
+        <v>196</v>
+      </c>
+      <c r="F124" t="s">
+        <v>46</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J124" t="s">
+        <v>47</v>
+      </c>
+      <c r="T124" t="s">
+        <v>102</v>
+      </c>
+      <c r="U124" t="s">
+        <v>103</v>
+      </c>
+      <c r="V124" t="s">
+        <v>102</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>435</v>
+      </c>
+      <c r="C125" t="s">
+        <v>391</v>
+      </c>
+      <c r="D125" t="s">
+        <v>197</v>
+      </c>
+      <c r="E125" t="s">
+        <v>197</v>
+      </c>
+      <c r="F125" t="s">
+        <v>101</v>
+      </c>
+      <c r="G125" t="s">
+        <v>198</v>
+      </c>
+      <c r="J125" t="s">
+        <v>47</v>
+      </c>
+      <c r="T125" t="s">
+        <v>102</v>
+      </c>
+      <c r="U125" t="s">
+        <v>103</v>
+      </c>
+      <c r="V125" t="s">
+        <v>102</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" ht="315" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>42</v>
+      </c>
+      <c r="B126" t="s">
+        <v>435</v>
+      </c>
+      <c r="C126" t="s">
+        <v>392</v>
+      </c>
+      <c r="D126" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126" t="s">
+        <v>200</v>
+      </c>
+      <c r="F126" t="s">
+        <v>101</v>
+      </c>
+      <c r="G126" t="s">
+        <v>201</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="T126" t="s">
+        <v>102</v>
+      </c>
+      <c r="U126" t="s">
+        <v>274</v>
+      </c>
+      <c r="V126" t="s">
+        <v>102</v>
+      </c>
+      <c r="W126" t="s">
+        <v>102</v>
+      </c>
+      <c r="X126" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" ht="165" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>435</v>
+      </c>
+      <c r="C127" t="s">
+        <v>393</v>
+      </c>
+      <c r="D127" t="s">
+        <v>203</v>
+      </c>
+      <c r="E127" t="s">
+        <v>203</v>
+      </c>
+      <c r="F127" t="s">
+        <v>46</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J127" t="s">
+        <v>205</v>
+      </c>
+      <c r="K127" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T127" t="s">
+        <v>41</v>
+      </c>
+      <c r="U127" t="s">
+        <v>61</v>
+      </c>
+      <c r="V127" t="s">
+        <v>71</v>
+      </c>
+      <c r="W127" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" ht="225" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>435</v>
+      </c>
+      <c r="C128" t="s">
+        <v>394</v>
+      </c>
+      <c r="D128" t="s">
+        <v>209</v>
+      </c>
+      <c r="E128" t="s">
+        <v>210</v>
+      </c>
+      <c r="F128" t="s">
+        <v>46</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J128" t="s">
+        <v>212</v>
+      </c>
+      <c r="K128" t="s">
+        <v>213</v>
+      </c>
+      <c r="L128" t="s">
+        <v>214</v>
+      </c>
+      <c r="M128" t="s">
+        <v>215</v>
+      </c>
+      <c r="P128" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="T128" t="s">
+        <v>41</v>
+      </c>
+      <c r="U128" t="s">
+        <v>61</v>
+      </c>
+      <c r="V128" t="s">
+        <v>71</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>435</v>
+      </c>
+      <c r="C129" t="s">
+        <v>395</v>
+      </c>
+      <c r="D129" t="s">
+        <v>218</v>
+      </c>
+      <c r="E129" t="s">
+        <v>218</v>
+      </c>
+      <c r="F129" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J129" t="s">
+        <v>47</v>
+      </c>
+      <c r="T129" t="s">
+        <v>102</v>
+      </c>
+      <c r="U129" t="s">
+        <v>103</v>
+      </c>
+      <c r="V129" t="s">
+        <v>102</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>46</v>
+      </c>
+      <c r="B130" t="s">
+        <v>435</v>
+      </c>
+      <c r="C130" t="s">
+        <v>396</v>
+      </c>
+      <c r="D130" t="s">
+        <v>220</v>
+      </c>
+      <c r="E130" t="s">
+        <v>220</v>
+      </c>
+      <c r="F130" t="s">
+        <v>101</v>
+      </c>
+      <c r="G130" t="s">
+        <v>221</v>
+      </c>
+      <c r="J130" t="s">
+        <v>341</v>
+      </c>
+      <c r="K130" t="s">
+        <v>222</v>
+      </c>
+      <c r="L130" t="s">
+        <v>214</v>
+      </c>
+      <c r="M130" t="s">
+        <v>223</v>
+      </c>
+      <c r="P130" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T130" t="s">
+        <v>41</v>
+      </c>
+      <c r="U130" t="s">
+        <v>42</v>
+      </c>
+      <c r="V130" t="s">
+        <v>62</v>
+      </c>
+      <c r="W130" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>47</v>
+      </c>
+      <c r="B131" t="s">
+        <v>435</v>
+      </c>
+      <c r="C131" t="s">
+        <v>397</v>
+      </c>
+      <c r="D131" t="s">
+        <v>225</v>
+      </c>
+      <c r="E131" t="s">
+        <v>225</v>
+      </c>
+      <c r="F131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J131" t="s">
+        <v>324</v>
+      </c>
+      <c r="K131" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="T131" t="s">
+        <v>41</v>
+      </c>
+      <c r="U131" t="s">
+        <v>61</v>
+      </c>
+      <c r="V131" t="s">
+        <v>71</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>48</v>
+      </c>
+      <c r="B132" t="s">
+        <v>435</v>
+      </c>
+      <c r="C132" t="s">
+        <v>398</v>
+      </c>
+      <c r="D132" t="s">
+        <v>227</v>
+      </c>
+      <c r="E132" t="s">
+        <v>228</v>
+      </c>
+      <c r="F132" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S132" t="s">
+        <v>232</v>
+      </c>
+      <c r="T132" t="s">
+        <v>41</v>
+      </c>
+      <c r="U132" t="s">
+        <v>61</v>
+      </c>
+      <c r="V132" t="s">
+        <v>142</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="X132" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>49</v>
+      </c>
+      <c r="B133" t="s">
+        <v>435</v>
+      </c>
+      <c r="C133" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" t="s">
+        <v>234</v>
+      </c>
+      <c r="E133" t="s">
+        <v>235</v>
+      </c>
+      <c r="F133" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J133" t="s">
+        <v>47</v>
+      </c>
+      <c r="T133" t="s">
+        <v>102</v>
+      </c>
+      <c r="U133" t="s">
+        <v>103</v>
+      </c>
+      <c r="V133" t="s">
+        <v>102</v>
+      </c>
+      <c r="W133" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>50</v>
+      </c>
+      <c r="B134" t="s">
+        <v>435</v>
+      </c>
+      <c r="C134" t="s">
+        <v>400</v>
+      </c>
+      <c r="D134" t="s">
+        <v>236</v>
+      </c>
+      <c r="E134" t="s">
+        <v>237</v>
+      </c>
+      <c r="F134" t="s">
+        <v>46</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J134" t="s">
+        <v>238</v>
+      </c>
+      <c r="K134" t="s">
+        <v>239</v>
+      </c>
+      <c r="T134" t="s">
+        <v>41</v>
+      </c>
+      <c r="U134" t="s">
+        <v>42</v>
+      </c>
+      <c r="V134" t="s">
+        <v>71</v>
+      </c>
+      <c r="W134" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>51</v>
+      </c>
+      <c r="B135" t="s">
+        <v>435</v>
+      </c>
+      <c r="C135" t="s">
+        <v>401</v>
+      </c>
+      <c r="D135" t="s">
+        <v>240</v>
+      </c>
+      <c r="E135" t="s">
+        <v>241</v>
+      </c>
+      <c r="F135" t="s">
+        <v>46</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J135" t="s">
+        <v>47</v>
+      </c>
+      <c r="T135" t="s">
+        <v>102</v>
+      </c>
+      <c r="U135" t="s">
+        <v>103</v>
+      </c>
+      <c r="V135" t="s">
+        <v>102</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>52</v>
+      </c>
+      <c r="B136" t="s">
+        <v>435</v>
+      </c>
+      <c r="C136" t="s">
+        <v>402</v>
+      </c>
+      <c r="D136" t="s">
+        <v>243</v>
+      </c>
+      <c r="E136" t="s">
+        <v>243</v>
+      </c>
+      <c r="F136" t="s">
+        <v>46</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K136" t="s">
+        <v>244</v>
+      </c>
+      <c r="T136" t="s">
+        <v>41</v>
+      </c>
+      <c r="U136" t="s">
+        <v>42</v>
+      </c>
+      <c r="V136" t="s">
+        <v>71</v>
+      </c>
+      <c r="W136" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="X136" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>53</v>
+      </c>
+      <c r="B137" t="s">
+        <v>435</v>
+      </c>
+      <c r="C137" t="s">
+        <v>403</v>
+      </c>
+      <c r="D137" t="s">
+        <v>246</v>
+      </c>
+      <c r="E137" t="s">
+        <v>246</v>
+      </c>
+      <c r="F137" t="s">
+        <v>46</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K137" t="s">
+        <v>247</v>
+      </c>
+      <c r="T137" t="s">
+        <v>41</v>
+      </c>
+      <c r="U137" t="s">
+        <v>42</v>
+      </c>
+      <c r="V137" t="s">
+        <v>71</v>
+      </c>
+      <c r="W137" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="X137" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>54</v>
+      </c>
+      <c r="B138" t="s">
+        <v>435</v>
+      </c>
+      <c r="C138" t="s">
+        <v>404</v>
+      </c>
+      <c r="D138" t="s">
+        <v>248</v>
+      </c>
+      <c r="E138" t="s">
+        <v>248</v>
+      </c>
+      <c r="F138" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J138" t="s">
+        <v>47</v>
+      </c>
+      <c r="T138" t="s">
+        <v>102</v>
+      </c>
+      <c r="U138" t="s">
+        <v>103</v>
+      </c>
+      <c r="V138" t="s">
+        <v>102</v>
+      </c>
+      <c r="W138" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>55</v>
+      </c>
+      <c r="B139" t="s">
+        <v>435</v>
+      </c>
+      <c r="C139" t="s">
+        <v>405</v>
+      </c>
+      <c r="D139" t="s">
+        <v>249</v>
+      </c>
+      <c r="E139" t="s">
+        <v>249</v>
+      </c>
+      <c r="F139" t="s">
+        <v>46</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J139" t="s">
+        <v>47</v>
+      </c>
+      <c r="T139" t="s">
+        <v>102</v>
+      </c>
+      <c r="U139" t="s">
+        <v>103</v>
+      </c>
+      <c r="V139" t="s">
+        <v>102</v>
+      </c>
+      <c r="W139" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>435</v>
+      </c>
+      <c r="C140" t="s">
+        <v>406</v>
+      </c>
+      <c r="D140" t="s">
+        <v>250</v>
+      </c>
+      <c r="E140" t="s">
+        <v>250</v>
+      </c>
+      <c r="F140" t="s">
+        <v>46</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J140" t="s">
+        <v>47</v>
+      </c>
+      <c r="T140" t="s">
+        <v>102</v>
+      </c>
+      <c r="U140" t="s">
+        <v>103</v>
+      </c>
+      <c r="V140" t="s">
+        <v>102</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>57</v>
+      </c>
+      <c r="B141" t="s">
+        <v>435</v>
+      </c>
+      <c r="C141" t="s">
+        <v>407</v>
+      </c>
+      <c r="D141" t="s">
+        <v>251</v>
+      </c>
+      <c r="E141" t="s">
+        <v>252</v>
+      </c>
+      <c r="F141" t="s">
+        <v>46</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J141" t="s">
+        <v>47</v>
+      </c>
+      <c r="T141" t="s">
+        <v>102</v>
+      </c>
+      <c r="U141" t="s">
+        <v>103</v>
+      </c>
+      <c r="V141" t="s">
+        <v>102</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>58</v>
+      </c>
+      <c r="B142" t="s">
+        <v>435</v>
+      </c>
+      <c r="C142" t="s">
         <v>408</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D142" t="s">
+        <v>253</v>
+      </c>
+      <c r="E142" t="s">
+        <v>253</v>
+      </c>
+      <c r="F142" t="s">
+        <v>46</v>
+      </c>
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
+      <c r="T142" t="s">
+        <v>102</v>
+      </c>
+      <c r="U142" t="s">
+        <v>103</v>
+      </c>
+      <c r="V142" t="s">
+        <v>102</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>59</v>
+      </c>
+      <c r="B143" t="s">
+        <v>435</v>
+      </c>
+      <c r="C143" t="s">
         <v>409</v>
       </c>
-      <c r="E86" t="s">
-        <v>409</v>
-      </c>
-      <c r="F86" t="s">
-        <v>52</v>
-      </c>
-      <c r="H86" t="s">
-        <v>53</v>
-      </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="T86" t="s">
-        <v>109</v>
-      </c>
-      <c r="U86" t="s">
-        <v>110</v>
-      </c>
-      <c r="V86" t="s">
-        <v>109</v>
-      </c>
-      <c r="W86" s="1" t="s">
-        <v>109</v>
+      <c r="D143" t="s">
+        <v>254</v>
+      </c>
+      <c r="E143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" t="s">
+        <v>46</v>
+      </c>
+      <c r="J143" t="s">
+        <v>47</v>
+      </c>
+      <c r="T143" t="s">
+        <v>102</v>
+      </c>
+      <c r="U143" t="s">
+        <v>103</v>
+      </c>
+      <c r="V143" t="s">
+        <v>102</v>
+      </c>
+      <c r="W143" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>60</v>
+      </c>
+      <c r="B144" t="s">
+        <v>435</v>
+      </c>
+      <c r="C144" t="s">
+        <v>410</v>
+      </c>
+      <c r="D144" t="s">
+        <v>255</v>
+      </c>
+      <c r="E144" t="s">
+        <v>255</v>
+      </c>
+      <c r="F144" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" t="s">
+        <v>47</v>
+      </c>
+      <c r="T144" t="s">
+        <v>102</v>
+      </c>
+      <c r="U144" t="s">
+        <v>103</v>
+      </c>
+      <c r="V144" t="s">
+        <v>102</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>61</v>
+      </c>
+      <c r="B145" t="s">
+        <v>435</v>
+      </c>
+      <c r="C145" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" t="s">
+        <v>256</v>
+      </c>
+      <c r="E145" t="s">
+        <v>256</v>
+      </c>
+      <c r="F145" t="s">
+        <v>46</v>
+      </c>
+      <c r="J145" t="s">
+        <v>47</v>
+      </c>
+      <c r="T145" t="s">
+        <v>102</v>
+      </c>
+      <c r="U145" t="s">
+        <v>103</v>
+      </c>
+      <c r="V145" t="s">
+        <v>102</v>
+      </c>
+      <c r="W145" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>62</v>
+      </c>
+      <c r="B146" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" t="s">
+        <v>412</v>
+      </c>
+      <c r="D146" t="s">
+        <v>257</v>
+      </c>
+      <c r="E146" t="s">
+        <v>257</v>
+      </c>
+      <c r="F146" t="s">
+        <v>46</v>
+      </c>
+      <c r="J146" t="s">
+        <v>47</v>
+      </c>
+      <c r="T146" t="s">
+        <v>102</v>
+      </c>
+      <c r="U146" t="s">
+        <v>103</v>
+      </c>
+      <c r="V146" t="s">
+        <v>102</v>
+      </c>
+      <c r="W146" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>63</v>
+      </c>
+      <c r="B147" t="s">
+        <v>435</v>
+      </c>
+      <c r="C147" t="s">
+        <v>413</v>
+      </c>
+      <c r="D147" t="s">
+        <v>258</v>
+      </c>
+      <c r="E147" t="s">
+        <v>258</v>
+      </c>
+      <c r="F147" t="s">
+        <v>46</v>
+      </c>
+      <c r="J147" t="s">
+        <v>47</v>
+      </c>
+      <c r="T147" t="s">
+        <v>102</v>
+      </c>
+      <c r="U147" t="s">
+        <v>103</v>
+      </c>
+      <c r="V147" t="s">
+        <v>102</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>435</v>
+      </c>
+      <c r="C148" t="s">
+        <v>414</v>
+      </c>
+      <c r="D148" t="s">
+        <v>259</v>
+      </c>
+      <c r="E148" t="s">
+        <v>259</v>
+      </c>
+      <c r="F148" t="s">
+        <v>46</v>
+      </c>
+      <c r="J148" t="s">
+        <v>47</v>
+      </c>
+      <c r="T148" t="s">
+        <v>102</v>
+      </c>
+      <c r="U148" t="s">
+        <v>103</v>
+      </c>
+      <c r="V148" t="s">
+        <v>102</v>
+      </c>
+      <c r="W148" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>65</v>
+      </c>
+      <c r="B149" t="s">
+        <v>435</v>
+      </c>
+      <c r="C149" t="s">
+        <v>415</v>
+      </c>
+      <c r="D149" t="s">
+        <v>260</v>
+      </c>
+      <c r="E149" t="s">
+        <v>260</v>
+      </c>
+      <c r="F149" t="s">
+        <v>46</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J149" t="s">
+        <v>47</v>
+      </c>
+      <c r="T149" t="s">
+        <v>102</v>
+      </c>
+      <c r="U149" t="s">
+        <v>103</v>
+      </c>
+      <c r="V149" t="s">
+        <v>102</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>66</v>
+      </c>
+      <c r="B150" t="s">
+        <v>435</v>
+      </c>
+      <c r="C150" t="s">
+        <v>416</v>
+      </c>
+      <c r="D150" t="s">
+        <v>262</v>
+      </c>
+      <c r="E150" t="s">
+        <v>262</v>
+      </c>
+      <c r="F150" t="s">
+        <v>101</v>
+      </c>
+      <c r="G150" t="s">
+        <v>263</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T150" t="s">
+        <v>41</v>
+      </c>
+      <c r="U150" t="s">
+        <v>61</v>
+      </c>
+      <c r="V150" t="s">
+        <v>62</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>67</v>
+      </c>
+      <c r="B151" t="s">
+        <v>435</v>
+      </c>
+      <c r="C151" t="s">
+        <v>417</v>
+      </c>
+      <c r="D151" t="s">
+        <v>265</v>
+      </c>
+      <c r="E151" t="s">
+        <v>265</v>
+      </c>
+      <c r="F151" t="s">
+        <v>46</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T151" t="s">
+        <v>41</v>
+      </c>
+      <c r="U151" t="s">
+        <v>61</v>
+      </c>
+      <c r="V151" t="s">
+        <v>142</v>
+      </c>
+      <c r="W151" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="255" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>68</v>
+      </c>
+      <c r="B152" t="s">
+        <v>435</v>
+      </c>
+      <c r="C152" t="s">
+        <v>418</v>
+      </c>
+      <c r="D152" t="s">
+        <v>267</v>
+      </c>
+      <c r="E152" t="s">
+        <v>267</v>
+      </c>
+      <c r="F152" t="s">
+        <v>46</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L152" t="s">
+        <v>271</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="P152" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="T152" t="s">
+        <v>102</v>
+      </c>
+      <c r="U152" t="s">
+        <v>274</v>
+      </c>
+      <c r="V152" t="s">
+        <v>102</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>69</v>
+      </c>
+      <c r="B153" t="s">
+        <v>435</v>
+      </c>
+      <c r="C153" t="s">
+        <v>419</v>
+      </c>
+      <c r="D153" t="s">
+        <v>275</v>
+      </c>
+      <c r="E153" t="s">
+        <v>275</v>
+      </c>
+      <c r="F153" t="s">
+        <v>46</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
+      </c>
+      <c r="T153" t="s">
+        <v>102</v>
+      </c>
+      <c r="U153" t="s">
+        <v>274</v>
+      </c>
+      <c r="V153" t="s">
+        <v>102</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="285" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>70</v>
+      </c>
+      <c r="B154" t="s">
+        <v>435</v>
+      </c>
+      <c r="C154" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154" t="s">
+        <v>277</v>
+      </c>
+      <c r="E154" t="s">
+        <v>277</v>
+      </c>
+      <c r="F154" t="s">
+        <v>46</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J154" t="s">
+        <v>335</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T154" t="s">
+        <v>41</v>
+      </c>
+      <c r="U154" t="s">
+        <v>61</v>
+      </c>
+      <c r="V154" t="s">
+        <v>71</v>
+      </c>
+      <c r="W154" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="285" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>71</v>
+      </c>
+      <c r="B155" t="s">
+        <v>435</v>
+      </c>
+      <c r="C155" t="s">
+        <v>421</v>
+      </c>
+      <c r="D155" t="s">
+        <v>278</v>
+      </c>
+      <c r="E155" t="s">
+        <v>278</v>
+      </c>
+      <c r="F155" t="s">
+        <v>46</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J155" t="s">
+        <v>336</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T155" t="s">
+        <v>41</v>
+      </c>
+      <c r="U155" t="s">
+        <v>61</v>
+      </c>
+      <c r="V155" t="s">
+        <v>71</v>
+      </c>
+      <c r="W155" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="330" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>72</v>
+      </c>
+      <c r="B156" t="s">
+        <v>435</v>
+      </c>
+      <c r="C156" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" t="s">
+        <v>279</v>
+      </c>
+      <c r="E156" t="s">
+        <v>280</v>
+      </c>
+      <c r="F156" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J156" t="s">
+        <v>47</v>
+      </c>
+      <c r="T156" t="s">
+        <v>102</v>
+      </c>
+      <c r="U156" t="s">
+        <v>274</v>
+      </c>
+      <c r="V156" t="s">
+        <v>102</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>73</v>
+      </c>
+      <c r="B157" t="s">
+        <v>435</v>
+      </c>
+      <c r="C157" t="s">
+        <v>423</v>
+      </c>
+      <c r="D157" t="s">
+        <v>282</v>
+      </c>
+      <c r="E157" t="s">
+        <v>283</v>
+      </c>
+      <c r="F157" t="s">
+        <v>46</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J157" t="s">
+        <v>47</v>
+      </c>
+      <c r="T157" t="s">
+        <v>102</v>
+      </c>
+      <c r="U157" t="s">
+        <v>274</v>
+      </c>
+      <c r="V157" t="s">
+        <v>102</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>74</v>
+      </c>
+      <c r="B158" t="s">
+        <v>435</v>
+      </c>
+      <c r="C158" t="s">
+        <v>424</v>
+      </c>
+      <c r="D158" t="s">
+        <v>284</v>
+      </c>
+      <c r="E158" t="s">
+        <v>285</v>
+      </c>
+      <c r="F158" t="s">
+        <v>46</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J158" t="s">
+        <v>47</v>
+      </c>
+      <c r="T158" t="s">
+        <v>102</v>
+      </c>
+      <c r="U158" t="s">
+        <v>274</v>
+      </c>
+      <c r="V158" t="s">
+        <v>102</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>75</v>
+      </c>
+      <c r="B159" t="s">
+        <v>435</v>
+      </c>
+      <c r="C159" t="s">
+        <v>425</v>
+      </c>
+      <c r="D159" t="s">
+        <v>286</v>
+      </c>
+      <c r="E159" t="s">
+        <v>287</v>
+      </c>
+      <c r="F159" t="s">
+        <v>46</v>
+      </c>
+      <c r="G159" t="s">
+        <v>263</v>
+      </c>
+      <c r="J159" t="s">
+        <v>47</v>
+      </c>
+      <c r="T159" t="s">
+        <v>102</v>
+      </c>
+      <c r="U159" t="s">
+        <v>274</v>
+      </c>
+      <c r="V159" t="s">
+        <v>102</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="165" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>76</v>
+      </c>
+      <c r="B160" t="s">
+        <v>435</v>
+      </c>
+      <c r="C160" t="s">
+        <v>426</v>
+      </c>
+      <c r="D160" t="s">
+        <v>288</v>
+      </c>
+      <c r="E160" t="s">
+        <v>289</v>
+      </c>
+      <c r="F160" t="s">
+        <v>46</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J160" t="s">
+        <v>47</v>
+      </c>
+      <c r="T160" t="s">
+        <v>102</v>
+      </c>
+      <c r="U160" t="s">
+        <v>274</v>
+      </c>
+      <c r="V160" t="s">
+        <v>102</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="210" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>77</v>
+      </c>
+      <c r="B161" t="s">
+        <v>435</v>
+      </c>
+      <c r="C161" t="s">
+        <v>427</v>
+      </c>
+      <c r="D161" t="s">
+        <v>291</v>
+      </c>
+      <c r="E161" t="s">
+        <v>292</v>
+      </c>
+      <c r="F161" t="s">
+        <v>46</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J161" t="s">
+        <v>294</v>
+      </c>
+      <c r="K161" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T161" t="s">
+        <v>41</v>
+      </c>
+      <c r="U161" t="s">
+        <v>61</v>
+      </c>
+      <c r="V161" t="s">
+        <v>71</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="180" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>78</v>
+      </c>
+      <c r="B162" t="s">
+        <v>435</v>
+      </c>
+      <c r="C162" t="s">
+        <v>428</v>
+      </c>
+      <c r="D162" t="s">
+        <v>298</v>
+      </c>
+      <c r="E162" t="s">
+        <v>298</v>
+      </c>
+      <c r="F162" t="s">
+        <v>46</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J162" t="s">
+        <v>300</v>
+      </c>
+      <c r="K162" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="T162" t="s">
+        <v>41</v>
+      </c>
+      <c r="U162" t="s">
+        <v>61</v>
+      </c>
+      <c r="V162" t="s">
+        <v>71</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="390" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>79</v>
+      </c>
+      <c r="B163" t="s">
+        <v>435</v>
+      </c>
+      <c r="C163" t="s">
+        <v>429</v>
+      </c>
+      <c r="D163" t="s">
+        <v>304</v>
+      </c>
+      <c r="E163" t="s">
+        <v>305</v>
+      </c>
+      <c r="F163" t="s">
+        <v>46</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T163" t="s">
+        <v>41</v>
+      </c>
+      <c r="U163" t="s">
+        <v>61</v>
+      </c>
+      <c r="V163" t="s">
+        <v>142</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="150" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>80</v>
+      </c>
+      <c r="B164" t="s">
+        <v>435</v>
+      </c>
+      <c r="C164" t="s">
+        <v>430</v>
+      </c>
+      <c r="D164" t="s">
+        <v>308</v>
+      </c>
+      <c r="E164" t="s">
+        <v>309</v>
+      </c>
+      <c r="F164" t="s">
+        <v>46</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T164" t="s">
+        <v>41</v>
+      </c>
+      <c r="U164" t="s">
+        <v>61</v>
+      </c>
+      <c r="V164" t="s">
+        <v>142</v>
+      </c>
+      <c r="W164" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>81</v>
+      </c>
+      <c r="B165" t="s">
+        <v>435</v>
+      </c>
+      <c r="C165" t="s">
+        <v>431</v>
+      </c>
+      <c r="D165" t="s">
+        <v>314</v>
+      </c>
+      <c r="E165" t="s">
+        <v>315</v>
+      </c>
+      <c r="F165" t="s">
+        <v>46</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="T165" t="s">
+        <v>41</v>
+      </c>
+      <c r="U165" t="s">
+        <v>61</v>
+      </c>
+      <c r="V165" t="s">
+        <v>142</v>
+      </c>
+      <c r="W165" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>82</v>
+      </c>
+      <c r="B166" t="s">
+        <v>435</v>
+      </c>
+      <c r="C166" t="s">
+        <v>432</v>
+      </c>
+      <c r="D166" t="s">
+        <v>318</v>
+      </c>
+      <c r="E166" t="s">
+        <v>319</v>
+      </c>
+      <c r="F166" t="s">
+        <v>101</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T166" t="s">
+        <v>41</v>
+      </c>
+      <c r="U166" t="s">
+        <v>61</v>
+      </c>
+      <c r="V166" t="s">
+        <v>62</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>83</v>
+      </c>
+      <c r="B167" t="s">
+        <v>435</v>
+      </c>
+      <c r="C167" t="s">
+        <v>433</v>
+      </c>
+      <c r="D167" t="s">
+        <v>321</v>
+      </c>
+      <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
+        <v>46</v>
+      </c>
+      <c r="G167" t="s">
+        <v>323</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T167" t="s">
+        <v>41</v>
+      </c>
+      <c r="U167" t="s">
+        <v>61</v>
+      </c>
+      <c r="V167" t="s">
+        <v>62</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/longitudinal/data_processing_elements_longitudinal-BCS.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-BCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B870AAA-5349-4059-9404-745EF59F6661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A8C4E-CD0B-4C06-8DAB-A1F32770F4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{17FAC360-F975-4673-8378-999FF3470EEC}"/>
+    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{17FAC360-F975-4673-8378-999FF3470EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="435">
   <si>
     <t>index</t>
   </si>
@@ -1834,9 +1834,6 @@
 b11winstg; 
 b11winsmg; 
 b11alcopp</t>
-  </si>
-  <si>
-    <t>BCS_test</t>
   </si>
 </sst>
 </file>
@@ -2222,9 +2219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9A9556-6A71-4D41-957B-24579A577B61}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D90" sqref="D90"/>
+      <selection pane="topRight" activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,3453 +5783,222 @@
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
-        <v>435</v>
-      </c>
-      <c r="C85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" t="s">
-        <v>33</v>
-      </c>
-      <c r="F85" t="s">
-        <v>34</v>
-      </c>
-      <c r="J85" t="s">
-        <v>35</v>
-      </c>
-      <c r="K85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L85" t="s">
-        <v>37</v>
-      </c>
-      <c r="M85" t="s">
-        <v>36</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P85" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s">
-        <v>41</v>
-      </c>
-      <c r="U85" t="s">
-        <v>42</v>
-      </c>
-      <c r="V85" t="s">
-        <v>43</v>
-      </c>
-      <c r="W85" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2</v>
-      </c>
-      <c r="B86" t="s">
-        <v>435</v>
-      </c>
-      <c r="C86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" t="s">
-        <v>46</v>
-      </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="T86" t="s">
-        <v>41</v>
-      </c>
-      <c r="U86" t="s">
-        <v>42</v>
-      </c>
-      <c r="V86" t="s">
-        <v>48</v>
-      </c>
-      <c r="W86" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>435</v>
-      </c>
-      <c r="C87" t="s">
-        <v>353</v>
-      </c>
-      <c r="D87" t="s">
-        <v>49</v>
-      </c>
-      <c r="E87" t="s">
-        <v>50</v>
-      </c>
-      <c r="F87" t="s">
-        <v>51</v>
-      </c>
-      <c r="H87" t="s">
-        <v>52</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N87" t="s">
-        <v>57</v>
-      </c>
-      <c r="O87" t="s">
-        <v>57</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S87" t="s">
-        <v>60</v>
-      </c>
-      <c r="T87" t="s">
-        <v>41</v>
-      </c>
-      <c r="U87" t="s">
-        <v>61</v>
-      </c>
-      <c r="V87" t="s">
-        <v>62</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>4</v>
-      </c>
-      <c r="B88" t="s">
-        <v>435</v>
-      </c>
-      <c r="C88" t="s">
-        <v>354</v>
-      </c>
-      <c r="D88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" t="s">
-        <v>46</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J88" t="s">
-        <v>67</v>
-      </c>
-      <c r="K88" t="s">
-        <v>68</v>
-      </c>
-      <c r="L88" t="s">
-        <v>69</v>
-      </c>
-      <c r="P88" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T88" t="s">
-        <v>41</v>
-      </c>
-      <c r="U88" t="s">
-        <v>42</v>
-      </c>
-      <c r="V88" t="s">
-        <v>71</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>5</v>
-      </c>
-      <c r="B89" t="s">
-        <v>435</v>
-      </c>
-      <c r="C89" t="s">
-        <v>355</v>
-      </c>
-      <c r="D89" t="s">
-        <v>73</v>
-      </c>
-      <c r="E89" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" t="s">
-        <v>46</v>
-      </c>
-      <c r="G89" t="s">
-        <v>75</v>
-      </c>
-      <c r="J89" t="s">
-        <v>47</v>
-      </c>
-      <c r="K89" t="s">
-        <v>76</v>
-      </c>
-      <c r="L89" t="s">
-        <v>77</v>
-      </c>
-      <c r="M89" t="s">
-        <v>78</v>
-      </c>
-      <c r="P89" t="s">
-        <v>79</v>
-      </c>
-      <c r="R89" t="s">
-        <v>75</v>
-      </c>
-      <c r="S89" t="s">
-        <v>80</v>
-      </c>
-      <c r="T89" t="s">
-        <v>41</v>
-      </c>
-      <c r="U89" t="s">
-        <v>42</v>
-      </c>
-      <c r="V89" t="s">
-        <v>48</v>
-      </c>
-      <c r="W89" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>435</v>
-      </c>
-      <c r="C90" t="s">
-        <v>356</v>
-      </c>
-      <c r="D90" t="s">
-        <v>81</v>
-      </c>
-      <c r="E90" t="s">
-        <v>82</v>
-      </c>
-      <c r="F90" t="s">
-        <v>46</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J90" t="s">
-        <v>84</v>
-      </c>
-      <c r="K90" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T90" t="s">
-        <v>41</v>
-      </c>
-      <c r="U90" t="s">
-        <v>61</v>
-      </c>
-      <c r="V90" t="s">
-        <v>71</v>
-      </c>
-      <c r="W90" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>435</v>
-      </c>
-      <c r="C91" t="s">
-        <v>357</v>
-      </c>
-      <c r="D91" t="s">
-        <v>88</v>
-      </c>
-      <c r="E91" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" t="s">
-        <v>46</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J91" t="s">
-        <v>91</v>
-      </c>
-      <c r="K91" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T91" t="s">
-        <v>41</v>
-      </c>
-      <c r="U91" t="s">
-        <v>61</v>
-      </c>
-      <c r="V91" t="s">
-        <v>71</v>
-      </c>
-      <c r="W91" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>435</v>
-      </c>
-      <c r="C92" t="s">
-        <v>358</v>
-      </c>
-      <c r="D92" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" t="s">
-        <v>96</v>
-      </c>
-      <c r="F92" t="s">
-        <v>46</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J92" t="s">
-        <v>91</v>
-      </c>
-      <c r="K92" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T92" t="s">
-        <v>41</v>
-      </c>
-      <c r="U92" t="s">
-        <v>61</v>
-      </c>
-      <c r="V92" t="s">
-        <v>71</v>
-      </c>
-      <c r="W92" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>9</v>
-      </c>
-      <c r="B93" t="s">
-        <v>435</v>
-      </c>
-      <c r="C93" t="s">
-        <v>359</v>
-      </c>
-      <c r="D93" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93" t="s">
-        <v>100</v>
-      </c>
-      <c r="F93" t="s">
-        <v>101</v>
-      </c>
-      <c r="J93" t="s">
-        <v>47</v>
-      </c>
-      <c r="T93" t="s">
-        <v>102</v>
-      </c>
-      <c r="U93" t="s">
-        <v>103</v>
-      </c>
-      <c r="V93" t="s">
-        <v>102</v>
-      </c>
-      <c r="W93" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>10</v>
-      </c>
-      <c r="B94" t="s">
-        <v>435</v>
-      </c>
-      <c r="C94" t="s">
-        <v>360</v>
-      </c>
-      <c r="D94" t="s">
-        <v>104</v>
-      </c>
-      <c r="E94" t="s">
-        <v>105</v>
-      </c>
-      <c r="F94" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" t="s">
-        <v>106</v>
-      </c>
-      <c r="K94" t="s">
-        <v>107</v>
-      </c>
-      <c r="L94" t="s">
-        <v>108</v>
-      </c>
-      <c r="M94" t="s">
-        <v>109</v>
-      </c>
-      <c r="N94" t="s">
-        <v>110</v>
-      </c>
-      <c r="O94" t="s">
-        <v>111</v>
-      </c>
-      <c r="P94" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="T94" t="s">
-        <v>41</v>
-      </c>
-      <c r="U94" t="s">
-        <v>42</v>
-      </c>
-      <c r="V94" t="s">
-        <v>71</v>
-      </c>
-      <c r="W94" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>11</v>
-      </c>
-      <c r="B95" t="s">
-        <v>435</v>
-      </c>
-      <c r="C95" t="s">
-        <v>361</v>
-      </c>
-      <c r="D95" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" t="s">
-        <v>115</v>
-      </c>
-      <c r="F95" t="s">
-        <v>46</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J95" t="s">
-        <v>91</v>
-      </c>
-      <c r="K95" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T95" t="s">
-        <v>41</v>
-      </c>
-      <c r="U95" t="s">
-        <v>61</v>
-      </c>
-      <c r="V95" t="s">
-        <v>71</v>
-      </c>
-      <c r="W95" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="345" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>12</v>
-      </c>
-      <c r="B96" t="s">
-        <v>435</v>
-      </c>
-      <c r="C96" t="s">
-        <v>362</v>
-      </c>
-      <c r="D96" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" t="s">
-        <v>119</v>
-      </c>
-      <c r="F96" t="s">
-        <v>46</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J96" t="s">
-        <v>121</v>
-      </c>
-      <c r="K96" t="s">
-        <v>122</v>
-      </c>
-      <c r="L96" t="s">
-        <v>123</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P96" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S96" t="s">
-        <v>126</v>
-      </c>
-      <c r="T96" t="s">
-        <v>41</v>
-      </c>
-      <c r="U96" t="s">
-        <v>61</v>
-      </c>
-      <c r="V96" t="s">
-        <v>71</v>
-      </c>
-      <c r="W96" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" ht="345" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>435</v>
-      </c>
-      <c r="C97" t="s">
-        <v>363</v>
-      </c>
-      <c r="D97" t="s">
-        <v>128</v>
-      </c>
-      <c r="E97" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" t="s">
-        <v>46</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J97" t="s">
-        <v>121</v>
-      </c>
-      <c r="K97" t="s">
-        <v>122</v>
-      </c>
-      <c r="L97" t="s">
-        <v>123</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P97" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T97" t="s">
-        <v>41</v>
-      </c>
-      <c r="U97" t="s">
-        <v>61</v>
-      </c>
-      <c r="V97" t="s">
-        <v>71</v>
-      </c>
-      <c r="W97" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>14</v>
-      </c>
-      <c r="B98" t="s">
-        <v>435</v>
-      </c>
-      <c r="C98" t="s">
-        <v>364</v>
-      </c>
-      <c r="D98" t="s">
-        <v>132</v>
-      </c>
-      <c r="E98" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" t="s">
-        <v>46</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J98" t="s">
-        <v>134</v>
-      </c>
-      <c r="K98" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T98" t="s">
-        <v>41</v>
-      </c>
-      <c r="U98" t="s">
-        <v>61</v>
-      </c>
-      <c r="V98" t="s">
-        <v>71</v>
-      </c>
-      <c r="W98" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>15</v>
-      </c>
-      <c r="B99" t="s">
-        <v>435</v>
-      </c>
-      <c r="C99" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" t="s">
-        <v>138</v>
-      </c>
-      <c r="F99" t="s">
-        <v>101</v>
-      </c>
-      <c r="G99" t="s">
-        <v>139</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T99" t="s">
-        <v>41</v>
-      </c>
-      <c r="U99" t="s">
-        <v>61</v>
-      </c>
-      <c r="V99" t="s">
-        <v>142</v>
-      </c>
-      <c r="W99" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>16</v>
-      </c>
-      <c r="B100" t="s">
-        <v>435</v>
-      </c>
-      <c r="C100" t="s">
-        <v>366</v>
-      </c>
-      <c r="D100" t="s">
-        <v>144</v>
-      </c>
-      <c r="E100" t="s">
-        <v>144</v>
-      </c>
-      <c r="F100" t="s">
-        <v>46</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T100" t="s">
-        <v>41</v>
-      </c>
-      <c r="U100" t="s">
-        <v>61</v>
-      </c>
-      <c r="V100" t="s">
-        <v>142</v>
-      </c>
-      <c r="W100" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>17</v>
-      </c>
-      <c r="B101" t="s">
-        <v>435</v>
-      </c>
-      <c r="C101" t="s">
-        <v>367</v>
-      </c>
-      <c r="D101" t="s">
-        <v>147</v>
-      </c>
-      <c r="E101" t="s">
-        <v>147</v>
-      </c>
-      <c r="F101" t="s">
-        <v>101</v>
-      </c>
-      <c r="G101" t="s">
-        <v>148</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T101" t="s">
-        <v>41</v>
-      </c>
-      <c r="U101" t="s">
-        <v>61</v>
-      </c>
-      <c r="V101" t="s">
-        <v>142</v>
-      </c>
-      <c r="W101" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>18</v>
-      </c>
-      <c r="B102" t="s">
-        <v>435</v>
-      </c>
-      <c r="C102" t="s">
-        <v>368</v>
-      </c>
-      <c r="D102" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" t="s">
-        <v>152</v>
-      </c>
-      <c r="F102" t="s">
-        <v>46</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T102" t="s">
-        <v>41</v>
-      </c>
-      <c r="U102" t="s">
-        <v>61</v>
-      </c>
-      <c r="V102" t="s">
-        <v>142</v>
-      </c>
-      <c r="W102" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>19</v>
-      </c>
-      <c r="B103" t="s">
-        <v>435</v>
-      </c>
-      <c r="C103" t="s">
-        <v>369</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" t="s">
-        <v>154</v>
-      </c>
-      <c r="F103" t="s">
-        <v>101</v>
-      </c>
-      <c r="G103" t="s">
-        <v>155</v>
-      </c>
-      <c r="J103" t="s">
-        <v>156</v>
-      </c>
-      <c r="K103" t="s">
-        <v>157</v>
-      </c>
-      <c r="P103" t="s">
-        <v>79</v>
-      </c>
-      <c r="T103" t="s">
-        <v>41</v>
-      </c>
-      <c r="U103" t="s">
-        <v>61</v>
-      </c>
-      <c r="V103" t="s">
-        <v>142</v>
-      </c>
-      <c r="W103" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>20</v>
-      </c>
-      <c r="B104" t="s">
-        <v>435</v>
-      </c>
-      <c r="C104" t="s">
-        <v>370</v>
-      </c>
-      <c r="D104" t="s">
-        <v>159</v>
-      </c>
-      <c r="E104" t="s">
-        <v>159</v>
-      </c>
-      <c r="F104" t="s">
-        <v>101</v>
-      </c>
-      <c r="G104" t="s">
-        <v>139</v>
-      </c>
-      <c r="J104" t="s">
-        <v>47</v>
-      </c>
-      <c r="T104" t="s">
-        <v>102</v>
-      </c>
-      <c r="U104" t="s">
-        <v>103</v>
-      </c>
-      <c r="V104" t="s">
-        <v>102</v>
-      </c>
-      <c r="W104" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>21</v>
-      </c>
-      <c r="B105" t="s">
-        <v>435</v>
-      </c>
-      <c r="C105" t="s">
-        <v>371</v>
-      </c>
-      <c r="D105" t="s">
-        <v>160</v>
-      </c>
-      <c r="E105" t="s">
-        <v>160</v>
-      </c>
-      <c r="F105" t="s">
-        <v>46</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J105" t="s">
-        <v>47</v>
-      </c>
-      <c r="T105" t="s">
-        <v>102</v>
-      </c>
-      <c r="U105" t="s">
-        <v>103</v>
-      </c>
-      <c r="V105" t="s">
-        <v>102</v>
-      </c>
-      <c r="W105" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>22</v>
-      </c>
-      <c r="B106" t="s">
-        <v>435</v>
-      </c>
-      <c r="C106" t="s">
-        <v>372</v>
-      </c>
-      <c r="D106" t="s">
-        <v>161</v>
-      </c>
-      <c r="E106" t="s">
-        <v>161</v>
-      </c>
-      <c r="F106" t="s">
-        <v>101</v>
-      </c>
-      <c r="G106" t="s">
-        <v>162</v>
-      </c>
-      <c r="J106" t="s">
-        <v>47</v>
-      </c>
-      <c r="T106" t="s">
-        <v>102</v>
-      </c>
-      <c r="U106" t="s">
-        <v>103</v>
-      </c>
-      <c r="V106" t="s">
-        <v>102</v>
-      </c>
-      <c r="W106" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>23</v>
-      </c>
-      <c r="B107" t="s">
-        <v>435</v>
-      </c>
-      <c r="C107" t="s">
-        <v>373</v>
-      </c>
-      <c r="D107" t="s">
-        <v>163</v>
-      </c>
-      <c r="E107" t="s">
-        <v>163</v>
-      </c>
-      <c r="F107" t="s">
-        <v>34</v>
-      </c>
-      <c r="J107" t="s">
-        <v>47</v>
-      </c>
-      <c r="T107" t="s">
-        <v>102</v>
-      </c>
-      <c r="U107" t="s">
-        <v>103</v>
-      </c>
-      <c r="V107" t="s">
-        <v>102</v>
-      </c>
-      <c r="W107" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>24</v>
-      </c>
-      <c r="B108" t="s">
-        <v>435</v>
-      </c>
-      <c r="C108" t="s">
-        <v>374</v>
-      </c>
-      <c r="D108" t="s">
-        <v>164</v>
-      </c>
-      <c r="E108" t="s">
-        <v>165</v>
-      </c>
-      <c r="F108" t="s">
-        <v>101</v>
-      </c>
-      <c r="G108" t="s">
-        <v>166</v>
-      </c>
-      <c r="J108" t="s">
-        <v>47</v>
-      </c>
-      <c r="T108" t="s">
-        <v>102</v>
-      </c>
-      <c r="U108" t="s">
-        <v>103</v>
-      </c>
-      <c r="V108" t="s">
-        <v>102</v>
-      </c>
-      <c r="W108" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>25</v>
-      </c>
-      <c r="B109" t="s">
-        <v>435</v>
-      </c>
-      <c r="C109" t="s">
-        <v>375</v>
-      </c>
-      <c r="D109" t="s">
-        <v>167</v>
-      </c>
-      <c r="E109" t="s">
-        <v>168</v>
-      </c>
-      <c r="F109" t="s">
-        <v>101</v>
-      </c>
-      <c r="G109" t="s">
-        <v>166</v>
-      </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="T109" t="s">
-        <v>102</v>
-      </c>
-      <c r="U109" t="s">
-        <v>103</v>
-      </c>
-      <c r="V109" t="s">
-        <v>102</v>
-      </c>
-      <c r="W109" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>26</v>
-      </c>
-      <c r="B110" t="s">
-        <v>435</v>
-      </c>
-      <c r="C110" t="s">
-        <v>376</v>
-      </c>
-      <c r="D110" t="s">
-        <v>169</v>
-      </c>
-      <c r="E110" t="s">
-        <v>169</v>
-      </c>
-      <c r="F110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G110" t="s">
-        <v>170</v>
-      </c>
-      <c r="J110" t="s">
-        <v>47</v>
-      </c>
-      <c r="T110" t="s">
-        <v>102</v>
-      </c>
-      <c r="U110" t="s">
-        <v>103</v>
-      </c>
-      <c r="V110" t="s">
-        <v>102</v>
-      </c>
-      <c r="W110" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>27</v>
-      </c>
-      <c r="B111" t="s">
-        <v>435</v>
-      </c>
-      <c r="C111" t="s">
-        <v>377</v>
-      </c>
-      <c r="D111" t="s">
-        <v>171</v>
-      </c>
-      <c r="E111" t="s">
-        <v>171</v>
-      </c>
-      <c r="F111" t="s">
-        <v>101</v>
-      </c>
-      <c r="G111" t="s">
-        <v>172</v>
-      </c>
-      <c r="J111" t="s">
-        <v>47</v>
-      </c>
-      <c r="T111" t="s">
-        <v>102</v>
-      </c>
-      <c r="U111" t="s">
-        <v>103</v>
-      </c>
-      <c r="V111" t="s">
-        <v>102</v>
-      </c>
-      <c r="W111" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>28</v>
-      </c>
-      <c r="B112" t="s">
-        <v>435</v>
-      </c>
-      <c r="C112" t="s">
-        <v>378</v>
-      </c>
-      <c r="D112" t="s">
-        <v>173</v>
-      </c>
-      <c r="E112" t="s">
-        <v>173</v>
-      </c>
-      <c r="F112" t="s">
-        <v>46</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J112" t="s">
-        <v>47</v>
-      </c>
-      <c r="T112" t="s">
-        <v>102</v>
-      </c>
-      <c r="U112" t="s">
-        <v>103</v>
-      </c>
-      <c r="V112" t="s">
-        <v>102</v>
-      </c>
-      <c r="W112" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>29</v>
-      </c>
-      <c r="B113" t="s">
-        <v>435</v>
-      </c>
-      <c r="C113" t="s">
-        <v>379</v>
-      </c>
-      <c r="D113" t="s">
-        <v>175</v>
-      </c>
-      <c r="E113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F113" t="s">
-        <v>101</v>
-      </c>
-      <c r="G113" t="s">
-        <v>176</v>
-      </c>
-      <c r="J113" t="s">
-        <v>47</v>
-      </c>
-      <c r="T113" t="s">
-        <v>102</v>
-      </c>
-      <c r="U113" t="s">
-        <v>103</v>
-      </c>
-      <c r="V113" t="s">
-        <v>102</v>
-      </c>
-      <c r="W113" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>30</v>
-      </c>
-      <c r="B114" t="s">
-        <v>435</v>
-      </c>
-      <c r="C114" t="s">
-        <v>380</v>
-      </c>
-      <c r="D114" t="s">
-        <v>177</v>
-      </c>
-      <c r="E114" t="s">
-        <v>177</v>
-      </c>
-      <c r="F114" t="s">
-        <v>101</v>
-      </c>
-      <c r="G114" t="s">
-        <v>178</v>
-      </c>
-      <c r="J114" t="s">
-        <v>47</v>
-      </c>
-      <c r="T114" t="s">
-        <v>102</v>
-      </c>
-      <c r="U114" t="s">
-        <v>103</v>
-      </c>
-      <c r="V114" t="s">
-        <v>102</v>
-      </c>
-      <c r="W114" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>31</v>
-      </c>
-      <c r="B115" t="s">
-        <v>435</v>
-      </c>
-      <c r="C115" t="s">
-        <v>381</v>
-      </c>
-      <c r="D115" t="s">
-        <v>179</v>
-      </c>
-      <c r="E115" t="s">
-        <v>179</v>
-      </c>
-      <c r="F115" t="s">
-        <v>101</v>
-      </c>
-      <c r="G115" t="s">
-        <v>180</v>
-      </c>
-      <c r="J115" t="s">
-        <v>47</v>
-      </c>
-      <c r="T115" t="s">
-        <v>102</v>
-      </c>
-      <c r="U115" t="s">
-        <v>103</v>
-      </c>
-      <c r="V115" t="s">
-        <v>102</v>
-      </c>
-      <c r="W115" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>32</v>
-      </c>
-      <c r="B116" t="s">
-        <v>435</v>
-      </c>
-      <c r="C116" t="s">
-        <v>382</v>
-      </c>
-      <c r="D116" t="s">
-        <v>181</v>
-      </c>
-      <c r="E116" t="s">
-        <v>181</v>
-      </c>
-      <c r="F116" t="s">
-        <v>101</v>
-      </c>
-      <c r="G116" t="s">
-        <v>180</v>
-      </c>
-      <c r="J116" t="s">
-        <v>47</v>
-      </c>
-      <c r="T116" t="s">
-        <v>102</v>
-      </c>
-      <c r="U116" t="s">
-        <v>103</v>
-      </c>
-      <c r="V116" t="s">
-        <v>102</v>
-      </c>
-      <c r="W116" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>33</v>
-      </c>
-      <c r="B117" t="s">
-        <v>435</v>
-      </c>
-      <c r="C117" t="s">
-        <v>383</v>
-      </c>
-      <c r="D117" t="s">
-        <v>182</v>
-      </c>
-      <c r="E117" t="s">
-        <v>182</v>
-      </c>
-      <c r="F117" t="s">
-        <v>101</v>
-      </c>
-      <c r="G117" t="s">
-        <v>180</v>
-      </c>
-      <c r="J117" t="s">
-        <v>47</v>
-      </c>
-      <c r="T117" t="s">
-        <v>102</v>
-      </c>
-      <c r="U117" t="s">
-        <v>103</v>
-      </c>
-      <c r="V117" t="s">
-        <v>102</v>
-      </c>
-      <c r="W117" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>34</v>
-      </c>
-      <c r="B118" t="s">
-        <v>435</v>
-      </c>
-      <c r="C118" t="s">
-        <v>384</v>
-      </c>
-      <c r="D118" t="s">
-        <v>183</v>
-      </c>
-      <c r="E118" t="s">
-        <v>183</v>
-      </c>
-      <c r="F118" t="s">
-        <v>101</v>
-      </c>
-      <c r="G118" t="s">
-        <v>180</v>
-      </c>
-      <c r="J118" t="s">
-        <v>47</v>
-      </c>
-      <c r="T118" t="s">
-        <v>102</v>
-      </c>
-      <c r="U118" t="s">
-        <v>103</v>
-      </c>
-      <c r="V118" t="s">
-        <v>102</v>
-      </c>
-      <c r="W118" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>35</v>
-      </c>
-      <c r="B119" t="s">
-        <v>435</v>
-      </c>
-      <c r="C119" t="s">
-        <v>385</v>
-      </c>
-      <c r="D119" t="s">
-        <v>184</v>
-      </c>
-      <c r="E119" t="s">
-        <v>184</v>
-      </c>
-      <c r="F119" t="s">
-        <v>101</v>
-      </c>
-      <c r="G119" t="s">
-        <v>180</v>
-      </c>
-      <c r="J119" t="s">
-        <v>47</v>
-      </c>
-      <c r="T119" t="s">
-        <v>102</v>
-      </c>
-      <c r="U119" t="s">
-        <v>103</v>
-      </c>
-      <c r="V119" t="s">
-        <v>102</v>
-      </c>
-      <c r="W119" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>36</v>
-      </c>
-      <c r="B120" t="s">
-        <v>435</v>
-      </c>
-      <c r="C120" t="s">
-        <v>386</v>
-      </c>
-      <c r="D120" t="s">
-        <v>185</v>
-      </c>
-      <c r="E120" t="s">
-        <v>185</v>
-      </c>
-      <c r="F120" t="s">
-        <v>101</v>
-      </c>
-      <c r="G120" t="s">
-        <v>186</v>
-      </c>
-      <c r="J120" t="s">
-        <v>47</v>
-      </c>
-      <c r="T120" t="s">
-        <v>102</v>
-      </c>
-      <c r="U120" t="s">
-        <v>103</v>
-      </c>
-      <c r="V120" t="s">
-        <v>102</v>
-      </c>
-      <c r="W120" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>37</v>
-      </c>
-      <c r="B121" t="s">
-        <v>435</v>
-      </c>
-      <c r="C121" t="s">
-        <v>387</v>
-      </c>
-      <c r="D121" t="s">
-        <v>187</v>
-      </c>
-      <c r="E121" t="s">
-        <v>188</v>
-      </c>
-      <c r="F121" t="s">
-        <v>101</v>
-      </c>
-      <c r="G121" t="s">
-        <v>189</v>
-      </c>
-      <c r="J121" t="s">
-        <v>47</v>
-      </c>
-      <c r="T121" t="s">
-        <v>102</v>
-      </c>
-      <c r="U121" t="s">
-        <v>103</v>
-      </c>
-      <c r="V121" t="s">
-        <v>102</v>
-      </c>
-      <c r="W121" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>38</v>
-      </c>
-      <c r="B122" t="s">
-        <v>435</v>
-      </c>
-      <c r="C122" t="s">
-        <v>388</v>
-      </c>
-      <c r="D122" t="s">
-        <v>190</v>
-      </c>
-      <c r="E122" t="s">
-        <v>191</v>
-      </c>
-      <c r="F122" t="s">
-        <v>46</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J122" t="s">
-        <v>47</v>
-      </c>
-      <c r="T122" t="s">
-        <v>102</v>
-      </c>
-      <c r="U122" t="s">
-        <v>103</v>
-      </c>
-      <c r="V122" t="s">
-        <v>102</v>
-      </c>
-      <c r="W122" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>39</v>
-      </c>
-      <c r="B123" t="s">
-        <v>435</v>
-      </c>
-      <c r="C123" t="s">
-        <v>389</v>
-      </c>
-      <c r="D123" t="s">
-        <v>193</v>
-      </c>
-      <c r="E123" t="s">
-        <v>194</v>
-      </c>
-      <c r="F123" t="s">
-        <v>101</v>
-      </c>
-      <c r="G123" t="s">
-        <v>189</v>
-      </c>
-      <c r="J123" t="s">
-        <v>47</v>
-      </c>
-      <c r="T123" t="s">
-        <v>102</v>
-      </c>
-      <c r="U123" t="s">
-        <v>103</v>
-      </c>
-      <c r="V123" t="s">
-        <v>102</v>
-      </c>
-      <c r="W123" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>40</v>
-      </c>
-      <c r="B124" t="s">
-        <v>435</v>
-      </c>
-      <c r="C124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D124" t="s">
-        <v>195</v>
-      </c>
-      <c r="E124" t="s">
-        <v>196</v>
-      </c>
-      <c r="F124" t="s">
-        <v>46</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="T124" t="s">
-        <v>102</v>
-      </c>
-      <c r="U124" t="s">
-        <v>103</v>
-      </c>
-      <c r="V124" t="s">
-        <v>102</v>
-      </c>
-      <c r="W124" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>41</v>
-      </c>
-      <c r="B125" t="s">
-        <v>435</v>
-      </c>
-      <c r="C125" t="s">
-        <v>391</v>
-      </c>
-      <c r="D125" t="s">
-        <v>197</v>
-      </c>
-      <c r="E125" t="s">
-        <v>197</v>
-      </c>
-      <c r="F125" t="s">
-        <v>101</v>
-      </c>
-      <c r="G125" t="s">
-        <v>198</v>
-      </c>
-      <c r="J125" t="s">
-        <v>47</v>
-      </c>
-      <c r="T125" t="s">
-        <v>102</v>
-      </c>
-      <c r="U125" t="s">
-        <v>103</v>
-      </c>
-      <c r="V125" t="s">
-        <v>102</v>
-      </c>
-      <c r="W125" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" ht="315" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>42</v>
-      </c>
-      <c r="B126" t="s">
-        <v>435</v>
-      </c>
-      <c r="C126" t="s">
-        <v>392</v>
-      </c>
-      <c r="D126" t="s">
-        <v>199</v>
-      </c>
-      <c r="E126" t="s">
-        <v>200</v>
-      </c>
-      <c r="F126" t="s">
-        <v>101</v>
-      </c>
-      <c r="G126" t="s">
-        <v>201</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="T126" t="s">
-        <v>102</v>
-      </c>
-      <c r="U126" t="s">
-        <v>274</v>
-      </c>
-      <c r="V126" t="s">
-        <v>102</v>
-      </c>
-      <c r="W126" t="s">
-        <v>102</v>
-      </c>
-      <c r="X126" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z126" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" ht="165" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>43</v>
-      </c>
-      <c r="B127" t="s">
-        <v>435</v>
-      </c>
-      <c r="C127" t="s">
-        <v>393</v>
-      </c>
-      <c r="D127" t="s">
-        <v>203</v>
-      </c>
-      <c r="E127" t="s">
-        <v>203</v>
-      </c>
-      <c r="F127" t="s">
-        <v>46</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J127" t="s">
-        <v>205</v>
-      </c>
-      <c r="K127" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q127" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="T127" t="s">
-        <v>41</v>
-      </c>
-      <c r="U127" t="s">
-        <v>61</v>
-      </c>
-      <c r="V127" t="s">
-        <v>71</v>
-      </c>
-      <c r="W127" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="128" spans="1:26" ht="225" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>44</v>
-      </c>
-      <c r="B128" t="s">
-        <v>435</v>
-      </c>
-      <c r="C128" t="s">
-        <v>394</v>
-      </c>
-      <c r="D128" t="s">
-        <v>209</v>
-      </c>
-      <c r="E128" t="s">
-        <v>210</v>
-      </c>
-      <c r="F128" t="s">
-        <v>46</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J128" t="s">
-        <v>212</v>
-      </c>
-      <c r="K128" t="s">
-        <v>213</v>
-      </c>
-      <c r="L128" t="s">
-        <v>214</v>
-      </c>
-      <c r="M128" t="s">
-        <v>215</v>
-      </c>
-      <c r="P128" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q128" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="T128" t="s">
-        <v>41</v>
-      </c>
-      <c r="U128" t="s">
-        <v>61</v>
-      </c>
-      <c r="V128" t="s">
-        <v>71</v>
-      </c>
-      <c r="W128" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>45</v>
-      </c>
-      <c r="B129" t="s">
-        <v>435</v>
-      </c>
-      <c r="C129" t="s">
-        <v>395</v>
-      </c>
-      <c r="D129" t="s">
-        <v>218</v>
-      </c>
-      <c r="E129" t="s">
-        <v>218</v>
-      </c>
-      <c r="F129" t="s">
-        <v>46</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J129" t="s">
-        <v>47</v>
-      </c>
-      <c r="T129" t="s">
-        <v>102</v>
-      </c>
-      <c r="U129" t="s">
-        <v>103</v>
-      </c>
-      <c r="V129" t="s">
-        <v>102</v>
-      </c>
-      <c r="W129" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="130" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>46</v>
-      </c>
-      <c r="B130" t="s">
-        <v>435</v>
-      </c>
-      <c r="C130" t="s">
-        <v>396</v>
-      </c>
-      <c r="D130" t="s">
-        <v>220</v>
-      </c>
-      <c r="E130" t="s">
-        <v>220</v>
-      </c>
-      <c r="F130" t="s">
-        <v>101</v>
-      </c>
-      <c r="G130" t="s">
-        <v>221</v>
-      </c>
-      <c r="J130" t="s">
-        <v>341</v>
-      </c>
-      <c r="K130" t="s">
-        <v>222</v>
-      </c>
-      <c r="L130" t="s">
-        <v>214</v>
-      </c>
-      <c r="M130" t="s">
-        <v>223</v>
-      </c>
-      <c r="P130" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="T130" t="s">
-        <v>41</v>
-      </c>
-      <c r="U130" t="s">
-        <v>42</v>
-      </c>
-      <c r="V130" t="s">
-        <v>62</v>
-      </c>
-      <c r="W130" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>47</v>
-      </c>
-      <c r="B131" t="s">
-        <v>435</v>
-      </c>
-      <c r="C131" t="s">
-        <v>397</v>
-      </c>
-      <c r="D131" t="s">
-        <v>225</v>
-      </c>
-      <c r="E131" t="s">
-        <v>225</v>
-      </c>
-      <c r="F131" t="s">
-        <v>46</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J131" t="s">
-        <v>324</v>
-      </c>
-      <c r="K131" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q131" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="T131" t="s">
-        <v>41</v>
-      </c>
-      <c r="U131" t="s">
-        <v>61</v>
-      </c>
-      <c r="V131" t="s">
-        <v>71</v>
-      </c>
-      <c r="W131" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="132" spans="1:26" ht="120" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>48</v>
-      </c>
-      <c r="B132" t="s">
-        <v>435</v>
-      </c>
-      <c r="C132" t="s">
-        <v>398</v>
-      </c>
-      <c r="D132" t="s">
-        <v>227</v>
-      </c>
-      <c r="E132" t="s">
-        <v>228</v>
-      </c>
-      <c r="F132" t="s">
-        <v>46</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="S132" t="s">
-        <v>232</v>
-      </c>
-      <c r="T132" t="s">
-        <v>41</v>
-      </c>
-      <c r="U132" t="s">
-        <v>61</v>
-      </c>
-      <c r="V132" t="s">
-        <v>142</v>
-      </c>
-      <c r="W132" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="X132" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z132" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="133" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>49</v>
-      </c>
-      <c r="B133" t="s">
-        <v>435</v>
-      </c>
-      <c r="C133" t="s">
-        <v>399</v>
-      </c>
-      <c r="D133" t="s">
-        <v>234</v>
-      </c>
-      <c r="E133" t="s">
-        <v>235</v>
-      </c>
-      <c r="F133" t="s">
-        <v>46</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J133" t="s">
-        <v>47</v>
-      </c>
-      <c r="T133" t="s">
-        <v>102</v>
-      </c>
-      <c r="U133" t="s">
-        <v>103</v>
-      </c>
-      <c r="V133" t="s">
-        <v>102</v>
-      </c>
-      <c r="W133" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>50</v>
-      </c>
-      <c r="B134" t="s">
-        <v>435</v>
-      </c>
-      <c r="C134" t="s">
-        <v>400</v>
-      </c>
-      <c r="D134" t="s">
-        <v>236</v>
-      </c>
-      <c r="E134" t="s">
-        <v>237</v>
-      </c>
-      <c r="F134" t="s">
-        <v>46</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J134" t="s">
-        <v>238</v>
-      </c>
-      <c r="K134" t="s">
-        <v>239</v>
-      </c>
-      <c r="T134" t="s">
-        <v>41</v>
-      </c>
-      <c r="U134" t="s">
-        <v>42</v>
-      </c>
-      <c r="V134" t="s">
-        <v>71</v>
-      </c>
-      <c r="W134" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="135" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>51</v>
-      </c>
-      <c r="B135" t="s">
-        <v>435</v>
-      </c>
-      <c r="C135" t="s">
-        <v>401</v>
-      </c>
-      <c r="D135" t="s">
-        <v>240</v>
-      </c>
-      <c r="E135" t="s">
-        <v>241</v>
-      </c>
-      <c r="F135" t="s">
-        <v>46</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J135" t="s">
-        <v>47</v>
-      </c>
-      <c r="T135" t="s">
-        <v>102</v>
-      </c>
-      <c r="U135" t="s">
-        <v>103</v>
-      </c>
-      <c r="V135" t="s">
-        <v>102</v>
-      </c>
-      <c r="W135" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="1:26" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>52</v>
-      </c>
-      <c r="B136" t="s">
-        <v>435</v>
-      </c>
-      <c r="C136" t="s">
-        <v>402</v>
-      </c>
-      <c r="D136" t="s">
-        <v>243</v>
-      </c>
-      <c r="E136" t="s">
-        <v>243</v>
-      </c>
-      <c r="F136" t="s">
-        <v>46</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K136" t="s">
-        <v>244</v>
-      </c>
-      <c r="T136" t="s">
-        <v>41</v>
-      </c>
-      <c r="U136" t="s">
-        <v>42</v>
-      </c>
-      <c r="V136" t="s">
-        <v>71</v>
-      </c>
-      <c r="W136" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="X136" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z136" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="137" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>53</v>
-      </c>
-      <c r="B137" t="s">
-        <v>435</v>
-      </c>
-      <c r="C137" t="s">
-        <v>403</v>
-      </c>
-      <c r="D137" t="s">
-        <v>246</v>
-      </c>
-      <c r="E137" t="s">
-        <v>246</v>
-      </c>
-      <c r="F137" t="s">
-        <v>46</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K137" t="s">
-        <v>247</v>
-      </c>
-      <c r="T137" t="s">
-        <v>41</v>
-      </c>
-      <c r="U137" t="s">
-        <v>42</v>
-      </c>
-      <c r="V137" t="s">
-        <v>71</v>
-      </c>
-      <c r="W137" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="X137" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z137" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>54</v>
-      </c>
-      <c r="B138" t="s">
-        <v>435</v>
-      </c>
-      <c r="C138" t="s">
-        <v>404</v>
-      </c>
-      <c r="D138" t="s">
-        <v>248</v>
-      </c>
-      <c r="E138" t="s">
-        <v>248</v>
-      </c>
-      <c r="F138" t="s">
-        <v>46</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J138" t="s">
-        <v>47</v>
-      </c>
-      <c r="T138" t="s">
-        <v>102</v>
-      </c>
-      <c r="U138" t="s">
-        <v>103</v>
-      </c>
-      <c r="V138" t="s">
-        <v>102</v>
-      </c>
-      <c r="W138" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>55</v>
-      </c>
-      <c r="B139" t="s">
-        <v>435</v>
-      </c>
-      <c r="C139" t="s">
-        <v>405</v>
-      </c>
-      <c r="D139" t="s">
-        <v>249</v>
-      </c>
-      <c r="E139" t="s">
-        <v>249</v>
-      </c>
-      <c r="F139" t="s">
-        <v>46</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J139" t="s">
-        <v>47</v>
-      </c>
-      <c r="T139" t="s">
-        <v>102</v>
-      </c>
-      <c r="U139" t="s">
-        <v>103</v>
-      </c>
-      <c r="V139" t="s">
-        <v>102</v>
-      </c>
-      <c r="W139" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="140" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>56</v>
-      </c>
-      <c r="B140" t="s">
-        <v>435</v>
-      </c>
-      <c r="C140" t="s">
-        <v>406</v>
-      </c>
-      <c r="D140" t="s">
-        <v>250</v>
-      </c>
-      <c r="E140" t="s">
-        <v>250</v>
-      </c>
-      <c r="F140" t="s">
-        <v>46</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J140" t="s">
-        <v>47</v>
-      </c>
-      <c r="T140" t="s">
-        <v>102</v>
-      </c>
-      <c r="U140" t="s">
-        <v>103</v>
-      </c>
-      <c r="V140" t="s">
-        <v>102</v>
-      </c>
-      <c r="W140" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>57</v>
-      </c>
-      <c r="B141" t="s">
-        <v>435</v>
-      </c>
-      <c r="C141" t="s">
-        <v>407</v>
-      </c>
-      <c r="D141" t="s">
-        <v>251</v>
-      </c>
-      <c r="E141" t="s">
-        <v>252</v>
-      </c>
-      <c r="F141" t="s">
-        <v>46</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J141" t="s">
-        <v>47</v>
-      </c>
-      <c r="T141" t="s">
-        <v>102</v>
-      </c>
-      <c r="U141" t="s">
-        <v>103</v>
-      </c>
-      <c r="V141" t="s">
-        <v>102</v>
-      </c>
-      <c r="W141" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>58</v>
-      </c>
-      <c r="B142" t="s">
-        <v>435</v>
-      </c>
-      <c r="C142" t="s">
-        <v>408</v>
-      </c>
-      <c r="D142" t="s">
-        <v>253</v>
-      </c>
-      <c r="E142" t="s">
-        <v>253</v>
-      </c>
-      <c r="F142" t="s">
-        <v>46</v>
-      </c>
-      <c r="J142" t="s">
-        <v>47</v>
-      </c>
-      <c r="T142" t="s">
-        <v>102</v>
-      </c>
-      <c r="U142" t="s">
-        <v>103</v>
-      </c>
-      <c r="V142" t="s">
-        <v>102</v>
-      </c>
-      <c r="W142" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>59</v>
-      </c>
-      <c r="B143" t="s">
-        <v>435</v>
-      </c>
-      <c r="C143" t="s">
-        <v>409</v>
-      </c>
-      <c r="D143" t="s">
-        <v>254</v>
-      </c>
-      <c r="E143" t="s">
-        <v>254</v>
-      </c>
-      <c r="F143" t="s">
-        <v>46</v>
-      </c>
-      <c r="J143" t="s">
-        <v>47</v>
-      </c>
-      <c r="T143" t="s">
-        <v>102</v>
-      </c>
-      <c r="U143" t="s">
-        <v>103</v>
-      </c>
-      <c r="V143" t="s">
-        <v>102</v>
-      </c>
-      <c r="W143" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>60</v>
-      </c>
-      <c r="B144" t="s">
-        <v>435</v>
-      </c>
-      <c r="C144" t="s">
-        <v>410</v>
-      </c>
-      <c r="D144" t="s">
-        <v>255</v>
-      </c>
-      <c r="E144" t="s">
-        <v>255</v>
-      </c>
-      <c r="F144" t="s">
-        <v>46</v>
-      </c>
-      <c r="J144" t="s">
-        <v>47</v>
-      </c>
-      <c r="T144" t="s">
-        <v>102</v>
-      </c>
-      <c r="U144" t="s">
-        <v>103</v>
-      </c>
-      <c r="V144" t="s">
-        <v>102</v>
-      </c>
-      <c r="W144" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>61</v>
-      </c>
-      <c r="B145" t="s">
-        <v>435</v>
-      </c>
-      <c r="C145" t="s">
-        <v>411</v>
-      </c>
-      <c r="D145" t="s">
-        <v>256</v>
-      </c>
-      <c r="E145" t="s">
-        <v>256</v>
-      </c>
-      <c r="F145" t="s">
-        <v>46</v>
-      </c>
-      <c r="J145" t="s">
-        <v>47</v>
-      </c>
-      <c r="T145" t="s">
-        <v>102</v>
-      </c>
-      <c r="U145" t="s">
-        <v>103</v>
-      </c>
-      <c r="V145" t="s">
-        <v>102</v>
-      </c>
-      <c r="W145" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>62</v>
-      </c>
-      <c r="B146" t="s">
-        <v>435</v>
-      </c>
-      <c r="C146" t="s">
-        <v>412</v>
-      </c>
-      <c r="D146" t="s">
-        <v>257</v>
-      </c>
-      <c r="E146" t="s">
-        <v>257</v>
-      </c>
-      <c r="F146" t="s">
-        <v>46</v>
-      </c>
-      <c r="J146" t="s">
-        <v>47</v>
-      </c>
-      <c r="T146" t="s">
-        <v>102</v>
-      </c>
-      <c r="U146" t="s">
-        <v>103</v>
-      </c>
-      <c r="V146" t="s">
-        <v>102</v>
-      </c>
-      <c r="W146" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>63</v>
-      </c>
-      <c r="B147" t="s">
-        <v>435</v>
-      </c>
-      <c r="C147" t="s">
-        <v>413</v>
-      </c>
-      <c r="D147" t="s">
-        <v>258</v>
-      </c>
-      <c r="E147" t="s">
-        <v>258</v>
-      </c>
-      <c r="F147" t="s">
-        <v>46</v>
-      </c>
-      <c r="J147" t="s">
-        <v>47</v>
-      </c>
-      <c r="T147" t="s">
-        <v>102</v>
-      </c>
-      <c r="U147" t="s">
-        <v>103</v>
-      </c>
-      <c r="V147" t="s">
-        <v>102</v>
-      </c>
-      <c r="W147" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>64</v>
-      </c>
-      <c r="B148" t="s">
-        <v>435</v>
-      </c>
-      <c r="C148" t="s">
-        <v>414</v>
-      </c>
-      <c r="D148" t="s">
-        <v>259</v>
-      </c>
-      <c r="E148" t="s">
-        <v>259</v>
-      </c>
-      <c r="F148" t="s">
-        <v>46</v>
-      </c>
-      <c r="J148" t="s">
-        <v>47</v>
-      </c>
-      <c r="T148" t="s">
-        <v>102</v>
-      </c>
-      <c r="U148" t="s">
-        <v>103</v>
-      </c>
-      <c r="V148" t="s">
-        <v>102</v>
-      </c>
-      <c r="W148" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" ht="90" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>65</v>
-      </c>
-      <c r="B149" t="s">
-        <v>435</v>
-      </c>
-      <c r="C149" t="s">
-        <v>415</v>
-      </c>
-      <c r="D149" t="s">
-        <v>260</v>
-      </c>
-      <c r="E149" t="s">
-        <v>260</v>
-      </c>
-      <c r="F149" t="s">
-        <v>46</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J149" t="s">
-        <v>47</v>
-      </c>
-      <c r="T149" t="s">
-        <v>102</v>
-      </c>
-      <c r="U149" t="s">
-        <v>103</v>
-      </c>
-      <c r="V149" t="s">
-        <v>102</v>
-      </c>
-      <c r="W149" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>66</v>
-      </c>
-      <c r="B150" t="s">
-        <v>435</v>
-      </c>
-      <c r="C150" t="s">
-        <v>416</v>
-      </c>
-      <c r="D150" t="s">
-        <v>262</v>
-      </c>
-      <c r="E150" t="s">
-        <v>262</v>
-      </c>
-      <c r="F150" t="s">
-        <v>101</v>
-      </c>
-      <c r="G150" t="s">
-        <v>263</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K150" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="T150" t="s">
-        <v>41</v>
-      </c>
-      <c r="U150" t="s">
-        <v>61</v>
-      </c>
-      <c r="V150" t="s">
-        <v>62</v>
-      </c>
-      <c r="W150" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" ht="165" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>67</v>
-      </c>
-      <c r="B151" t="s">
-        <v>435</v>
-      </c>
-      <c r="C151" t="s">
-        <v>417</v>
-      </c>
-      <c r="D151" t="s">
-        <v>265</v>
-      </c>
-      <c r="E151" t="s">
-        <v>265</v>
-      </c>
-      <c r="F151" t="s">
-        <v>46</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="T151" t="s">
-        <v>41</v>
-      </c>
-      <c r="U151" t="s">
-        <v>61</v>
-      </c>
-      <c r="V151" t="s">
-        <v>142</v>
-      </c>
-      <c r="W151" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" ht="255" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>68</v>
-      </c>
-      <c r="B152" t="s">
-        <v>435</v>
-      </c>
-      <c r="C152" t="s">
-        <v>418</v>
-      </c>
-      <c r="D152" t="s">
-        <v>267</v>
-      </c>
-      <c r="E152" t="s">
-        <v>267</v>
-      </c>
-      <c r="F152" t="s">
-        <v>46</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L152" t="s">
-        <v>271</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="P152" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q152" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="T152" t="s">
-        <v>102</v>
-      </c>
-      <c r="U152" t="s">
-        <v>274</v>
-      </c>
-      <c r="V152" t="s">
-        <v>102</v>
-      </c>
-      <c r="W152" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" ht="90" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>69</v>
-      </c>
-      <c r="B153" t="s">
-        <v>435</v>
-      </c>
-      <c r="C153" t="s">
-        <v>419</v>
-      </c>
-      <c r="D153" t="s">
-        <v>275</v>
-      </c>
-      <c r="E153" t="s">
-        <v>275</v>
-      </c>
-      <c r="F153" t="s">
-        <v>46</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J153" t="s">
-        <v>47</v>
-      </c>
-      <c r="T153" t="s">
-        <v>102</v>
-      </c>
-      <c r="U153" t="s">
-        <v>274</v>
-      </c>
-      <c r="V153" t="s">
-        <v>102</v>
-      </c>
-      <c r="W153" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" ht="285" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>70</v>
-      </c>
-      <c r="B154" t="s">
-        <v>435</v>
-      </c>
-      <c r="C154" t="s">
-        <v>420</v>
-      </c>
-      <c r="D154" t="s">
-        <v>277</v>
-      </c>
-      <c r="E154" t="s">
-        <v>277</v>
-      </c>
-      <c r="F154" t="s">
-        <v>46</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J154" t="s">
-        <v>335</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="M154" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q154" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="S154" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="T154" t="s">
-        <v>41</v>
-      </c>
-      <c r="U154" t="s">
-        <v>61</v>
-      </c>
-      <c r="V154" t="s">
-        <v>71</v>
-      </c>
-      <c r="W154" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" ht="285" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>71</v>
-      </c>
-      <c r="B155" t="s">
-        <v>435</v>
-      </c>
-      <c r="C155" t="s">
-        <v>421</v>
-      </c>
-      <c r="D155" t="s">
-        <v>278</v>
-      </c>
-      <c r="E155" t="s">
-        <v>278</v>
-      </c>
-      <c r="F155" t="s">
-        <v>46</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J155" t="s">
-        <v>336</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M155" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q155" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="S155" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="T155" t="s">
-        <v>41</v>
-      </c>
-      <c r="U155" t="s">
-        <v>61</v>
-      </c>
-      <c r="V155" t="s">
-        <v>71</v>
-      </c>
-      <c r="W155" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" ht="330" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>72</v>
-      </c>
-      <c r="B156" t="s">
-        <v>435</v>
-      </c>
-      <c r="C156" t="s">
-        <v>422</v>
-      </c>
-      <c r="D156" t="s">
-        <v>279</v>
-      </c>
-      <c r="E156" t="s">
-        <v>280</v>
-      </c>
-      <c r="F156" t="s">
-        <v>46</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J156" t="s">
-        <v>47</v>
-      </c>
-      <c r="T156" t="s">
-        <v>102</v>
-      </c>
-      <c r="U156" t="s">
-        <v>274</v>
-      </c>
-      <c r="V156" t="s">
-        <v>102</v>
-      </c>
-      <c r="W156" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" ht="90" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>73</v>
-      </c>
-      <c r="B157" t="s">
-        <v>435</v>
-      </c>
-      <c r="C157" t="s">
-        <v>423</v>
-      </c>
-      <c r="D157" t="s">
-        <v>282</v>
-      </c>
-      <c r="E157" t="s">
-        <v>283</v>
-      </c>
-      <c r="F157" t="s">
-        <v>46</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J157" t="s">
-        <v>47</v>
-      </c>
-      <c r="T157" t="s">
-        <v>102</v>
-      </c>
-      <c r="U157" t="s">
-        <v>274</v>
-      </c>
-      <c r="V157" t="s">
-        <v>102</v>
-      </c>
-      <c r="W157" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" ht="90" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>74</v>
-      </c>
-      <c r="B158" t="s">
-        <v>435</v>
-      </c>
-      <c r="C158" t="s">
-        <v>424</v>
-      </c>
-      <c r="D158" t="s">
-        <v>284</v>
-      </c>
-      <c r="E158" t="s">
-        <v>285</v>
-      </c>
-      <c r="F158" t="s">
-        <v>46</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J158" t="s">
-        <v>47</v>
-      </c>
-      <c r="T158" t="s">
-        <v>102</v>
-      </c>
-      <c r="U158" t="s">
-        <v>274</v>
-      </c>
-      <c r="V158" t="s">
-        <v>102</v>
-      </c>
-      <c r="W158" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>75</v>
-      </c>
-      <c r="B159" t="s">
-        <v>435</v>
-      </c>
-      <c r="C159" t="s">
-        <v>425</v>
-      </c>
-      <c r="D159" t="s">
-        <v>286</v>
-      </c>
-      <c r="E159" t="s">
-        <v>287</v>
-      </c>
-      <c r="F159" t="s">
-        <v>46</v>
-      </c>
-      <c r="G159" t="s">
-        <v>263</v>
-      </c>
-      <c r="J159" t="s">
-        <v>47</v>
-      </c>
-      <c r="T159" t="s">
-        <v>102</v>
-      </c>
-      <c r="U159" t="s">
-        <v>274</v>
-      </c>
-      <c r="V159" t="s">
-        <v>102</v>
-      </c>
-      <c r="W159" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" ht="165" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>76</v>
-      </c>
-      <c r="B160" t="s">
-        <v>435</v>
-      </c>
-      <c r="C160" t="s">
-        <v>426</v>
-      </c>
-      <c r="D160" t="s">
-        <v>288</v>
-      </c>
-      <c r="E160" t="s">
-        <v>289</v>
-      </c>
-      <c r="F160" t="s">
-        <v>46</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="J160" t="s">
-        <v>47</v>
-      </c>
-      <c r="T160" t="s">
-        <v>102</v>
-      </c>
-      <c r="U160" t="s">
-        <v>274</v>
-      </c>
-      <c r="V160" t="s">
-        <v>102</v>
-      </c>
-      <c r="W160" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" ht="210" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>77</v>
-      </c>
-      <c r="B161" t="s">
-        <v>435</v>
-      </c>
-      <c r="C161" t="s">
-        <v>427</v>
-      </c>
-      <c r="D161" t="s">
-        <v>291</v>
-      </c>
-      <c r="E161" t="s">
-        <v>292</v>
-      </c>
-      <c r="F161" t="s">
-        <v>46</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J161" t="s">
-        <v>294</v>
-      </c>
-      <c r="K161" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q161" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="T161" t="s">
-        <v>41</v>
-      </c>
-      <c r="U161" t="s">
-        <v>61</v>
-      </c>
-      <c r="V161" t="s">
-        <v>71</v>
-      </c>
-      <c r="W161" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23" ht="180" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>78</v>
-      </c>
-      <c r="B162" t="s">
-        <v>435</v>
-      </c>
-      <c r="C162" t="s">
-        <v>428</v>
-      </c>
-      <c r="D162" t="s">
-        <v>298</v>
-      </c>
-      <c r="E162" t="s">
-        <v>298</v>
-      </c>
-      <c r="F162" t="s">
-        <v>46</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J162" t="s">
-        <v>300</v>
-      </c>
-      <c r="K162" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q162" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="T162" t="s">
-        <v>41</v>
-      </c>
-      <c r="U162" t="s">
-        <v>61</v>
-      </c>
-      <c r="V162" t="s">
-        <v>71</v>
-      </c>
-      <c r="W162" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" ht="390" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>79</v>
-      </c>
-      <c r="B163" t="s">
-        <v>435</v>
-      </c>
-      <c r="C163" t="s">
-        <v>429</v>
-      </c>
-      <c r="D163" t="s">
-        <v>304</v>
-      </c>
-      <c r="E163" t="s">
-        <v>305</v>
-      </c>
-      <c r="F163" t="s">
-        <v>46</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="T163" t="s">
-        <v>41</v>
-      </c>
-      <c r="U163" t="s">
-        <v>61</v>
-      </c>
-      <c r="V163" t="s">
-        <v>142</v>
-      </c>
-      <c r="W163" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>80</v>
-      </c>
-      <c r="B164" t="s">
-        <v>435</v>
-      </c>
-      <c r="C164" t="s">
-        <v>430</v>
-      </c>
-      <c r="D164" t="s">
-        <v>308</v>
-      </c>
-      <c r="E164" t="s">
-        <v>309</v>
-      </c>
-      <c r="F164" t="s">
-        <v>46</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q164" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="T164" t="s">
-        <v>41</v>
-      </c>
-      <c r="U164" t="s">
-        <v>61</v>
-      </c>
-      <c r="V164" t="s">
-        <v>142</v>
-      </c>
-      <c r="W164" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>81</v>
-      </c>
-      <c r="B165" t="s">
-        <v>435</v>
-      </c>
-      <c r="C165" t="s">
-        <v>431</v>
-      </c>
-      <c r="D165" t="s">
-        <v>314</v>
-      </c>
-      <c r="E165" t="s">
-        <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>46</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="T165" t="s">
-        <v>41</v>
-      </c>
-      <c r="U165" t="s">
-        <v>61</v>
-      </c>
-      <c r="V165" t="s">
-        <v>142</v>
-      </c>
-      <c r="W165" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>82</v>
-      </c>
-      <c r="B166" t="s">
-        <v>435</v>
-      </c>
-      <c r="C166" t="s">
-        <v>432</v>
-      </c>
-      <c r="D166" t="s">
-        <v>318</v>
-      </c>
-      <c r="E166" t="s">
-        <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>101</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="T166" t="s">
-        <v>41</v>
-      </c>
-      <c r="U166" t="s">
-        <v>61</v>
-      </c>
-      <c r="V166" t="s">
-        <v>62</v>
-      </c>
-      <c r="W166" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>83</v>
-      </c>
-      <c r="B167" t="s">
-        <v>435</v>
-      </c>
-      <c r="C167" t="s">
-        <v>433</v>
-      </c>
-      <c r="D167" t="s">
-        <v>321</v>
-      </c>
-      <c r="E167" t="s">
-        <v>322</v>
-      </c>
-      <c r="F167" t="s">
-        <v>46</v>
-      </c>
-      <c r="G167" t="s">
-        <v>323</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="T167" t="s">
-        <v>41</v>
-      </c>
-      <c r="U167" t="s">
-        <v>61</v>
-      </c>
-      <c r="V167" t="s">
-        <v>62</v>
-      </c>
-      <c r="W167" s="1" t="s">
-        <v>352</v>
-      </c>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O85" s="1"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I90" s="1"/>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I95" s="1"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I98" s="1"/>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="W99" s="2"/>
+    </row>
+    <row r="100" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="W101" s="2"/>
+    </row>
+    <row r="102" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="P102" s="1"/>
+    </row>
+    <row r="105" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="112" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="122" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="124" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="126" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J126" s="1"/>
+      <c r="W126"/>
+    </row>
+    <row r="127" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I127" s="1"/>
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I128" s="1"/>
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I131" s="1"/>
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="X136" s="1"/>
+    </row>
+    <row r="137" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="149" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="Q152" s="1"/>
+    </row>
+    <row r="153" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="160" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I161" s="1"/>
+      <c r="Q161" s="1"/>
+    </row>
+    <row r="162" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I162" s="1"/>
+      <c r="Q162" s="1"/>
+    </row>
+    <row r="163" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="Q164" s="1"/>
+    </row>
+    <row r="165" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="J167" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/longitudinal/data_processing_elements_longitudinal-BCS.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-BCS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A8C4E-CD0B-4C06-8DAB-A1F32770F4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD4B2B4-341A-4733-AF59-0CE7D0946E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{17FAC360-F975-4673-8378-999FF3470EEC}"/>
   </bookViews>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>response_to_cohort_step2</t>
-  </si>
-  <si>
-    <t>BCS</t>
   </si>
   <si>
     <t>adm_id</t>
@@ -1834,6 +1831,9 @@
 b11winstg; 
 b11winsmg; 
 b11alcopp</t>
+  </si>
+  <si>
+    <t>BCS_f1</t>
   </si>
 </sst>
 </file>
@@ -2219,9 +2219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9A9556-6A71-4D41-957B-24579A577B61}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C187" sqref="C187"/>
+      <selection pane="topRight" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,52 +2340,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -2393,31 +2393,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="s">
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
         <v>47</v>
-      </c>
-      <c r="T3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
       </c>
       <c r="W3" s="1">
         <v>2</v>
@@ -2428,61 +2428,61 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" t="s">
         <v>59</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
         <v>60</v>
       </c>
-      <c r="T4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>61</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" x14ac:dyDescent="0.25">
@@ -2490,49 +2490,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>67</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>68</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" t="s">
         <v>70</v>
       </c>
-      <c r="T5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -2540,52 +2540,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" t="s">
         <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" t="s">
-        <v>48</v>
       </c>
       <c r="W6" s="1">
         <v>51</v>
@@ -2596,43 +2596,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="T7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="T7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
@@ -2640,43 +2640,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="T8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="T8" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" t="s">
-        <v>61</v>
-      </c>
-      <c r="V8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
@@ -2684,43 +2684,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" t="s">
-        <v>61</v>
-      </c>
-      <c r="V9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -2728,34 +2728,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>100</v>
       </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" t="s">
         <v>102</v>
       </c>
-      <c r="U10" t="s">
-        <v>103</v>
-      </c>
       <c r="V10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="255" x14ac:dyDescent="0.25">
@@ -2763,55 +2763,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
         <v>105</v>
       </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>107</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>108</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>110</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="T11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" t="s">
-        <v>71</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
@@ -2819,43 +2819,43 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
         <v>114</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="J12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" t="s">
-        <v>61</v>
-      </c>
-      <c r="V12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="345" x14ac:dyDescent="0.25">
@@ -2863,55 +2863,55 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
         <v>118</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>121</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>122</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="S13" t="s">
         <v>125</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="T13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V13" t="s">
-        <v>71</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="345" x14ac:dyDescent="0.25">
@@ -2919,52 +2919,52 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
         <v>128</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="J14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" t="s">
-        <v>61</v>
-      </c>
-      <c r="V14" t="s">
-        <v>71</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="409.5" x14ac:dyDescent="0.25">
@@ -2972,43 +2972,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" t="s">
         <v>133</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>134</v>
       </c>
-      <c r="K15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="T15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="T15" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" t="s">
-        <v>61</v>
-      </c>
-      <c r="V15" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="60" x14ac:dyDescent="0.25">
@@ -3016,43 +3016,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
         <v>138</v>
       </c>
-      <c r="E16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="J16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="T16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" t="s">
         <v>141</v>
       </c>
-      <c r="T16" t="s">
-        <v>41</v>
-      </c>
-      <c r="U16" t="s">
-        <v>61</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="W16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="W16" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="Z16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -3060,40 +3060,40 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T17" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" t="s">
+        <v>141</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T17" t="s">
-        <v>41</v>
-      </c>
-      <c r="U17" t="s">
-        <v>61</v>
-      </c>
-      <c r="V17" t="s">
-        <v>142</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="105" x14ac:dyDescent="0.25">
@@ -3101,46 +3101,46 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
         <v>147</v>
       </c>
-      <c r="E18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="J18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="P18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" t="s">
+        <v>141</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" t="s">
-        <v>61</v>
-      </c>
-      <c r="V18" t="s">
-        <v>142</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="Z18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="105" x14ac:dyDescent="0.25">
@@ -3148,43 +3148,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T19" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19" t="s">
+        <v>141</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T19" t="s">
-        <v>41</v>
-      </c>
-      <c r="U19" t="s">
-        <v>61</v>
-      </c>
-      <c r="V19" t="s">
-        <v>142</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3192,43 +3192,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
         <v>154</v>
       </c>
-      <c r="E20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>155</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>156</v>
       </c>
-      <c r="K20" t="s">
+      <c r="P20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="P20" t="s">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U20" t="s">
-        <v>61</v>
-      </c>
-      <c r="V20" t="s">
-        <v>142</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -3236,37 +3236,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
+        <v>101</v>
+      </c>
+      <c r="U21" t="s">
         <v>102</v>
       </c>
-      <c r="U21" t="s">
-        <v>103</v>
-      </c>
       <c r="V21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3274,37 +3274,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J22" t="s">
-        <v>47</v>
-      </c>
       <c r="T22" t="s">
+        <v>101</v>
+      </c>
+      <c r="U22" t="s">
         <v>102</v>
       </c>
-      <c r="U22" t="s">
-        <v>103</v>
-      </c>
       <c r="V22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -3312,37 +3312,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
         <v>161</v>
       </c>
-      <c r="E23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" t="s">
-        <v>162</v>
-      </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T23" t="s">
+        <v>101</v>
+      </c>
+      <c r="U23" t="s">
         <v>102</v>
       </c>
-      <c r="U23" t="s">
-        <v>103</v>
-      </c>
       <c r="V23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -3350,34 +3350,34 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s">
+        <v>101</v>
+      </c>
+      <c r="U24" t="s">
         <v>102</v>
       </c>
-      <c r="U24" t="s">
-        <v>103</v>
-      </c>
       <c r="V24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -3385,37 +3385,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
         <v>164</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
         <v>165</v>
       </c>
-      <c r="F25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" t="s">
-        <v>166</v>
-      </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T25" t="s">
+        <v>101</v>
+      </c>
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="U25" t="s">
-        <v>103</v>
-      </c>
       <c r="V25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -3423,37 +3423,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
         <v>167</v>
       </c>
-      <c r="E26" t="s">
-        <v>168</v>
-      </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T26" t="s">
+        <v>101</v>
+      </c>
+      <c r="U26" t="s">
         <v>102</v>
       </c>
-      <c r="U26" t="s">
-        <v>103</v>
-      </c>
       <c r="V26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -3461,37 +3461,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
         <v>169</v>
       </c>
-      <c r="E27" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" t="s">
-        <v>170</v>
-      </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s">
+        <v>101</v>
+      </c>
+      <c r="U27" t="s">
         <v>102</v>
       </c>
-      <c r="U27" t="s">
-        <v>103</v>
-      </c>
       <c r="V27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -3499,37 +3499,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
         <v>171</v>
       </c>
-      <c r="E28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" t="s">
-        <v>172</v>
-      </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T28" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" t="s">
         <v>102</v>
       </c>
-      <c r="U28" t="s">
-        <v>103</v>
-      </c>
       <c r="V28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3537,37 +3537,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="J29" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J29" t="s">
-        <v>47</v>
-      </c>
       <c r="T29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U29" t="s">
         <v>102</v>
       </c>
-      <c r="U29" t="s">
-        <v>103</v>
-      </c>
       <c r="V29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3575,37 +3575,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" t="s">
         <v>175</v>
       </c>
-      <c r="E30" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" t="s">
-        <v>176</v>
-      </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T30" t="s">
+        <v>101</v>
+      </c>
+      <c r="U30" t="s">
         <v>102</v>
       </c>
-      <c r="U30" t="s">
-        <v>103</v>
-      </c>
       <c r="V30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3613,37 +3613,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
         <v>177</v>
       </c>
-      <c r="E31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" t="s">
-        <v>178</v>
-      </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T31" t="s">
+        <v>101</v>
+      </c>
+      <c r="U31" t="s">
         <v>102</v>
       </c>
-      <c r="U31" t="s">
-        <v>103</v>
-      </c>
       <c r="V31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3651,37 +3651,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
         <v>179</v>
       </c>
-      <c r="E32" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" t="s">
-        <v>180</v>
-      </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T32" t="s">
+        <v>101</v>
+      </c>
+      <c r="U32" t="s">
         <v>102</v>
       </c>
-      <c r="U32" t="s">
-        <v>103</v>
-      </c>
       <c r="V32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -3689,37 +3689,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T33" t="s">
+        <v>101</v>
+      </c>
+      <c r="U33" t="s">
         <v>102</v>
       </c>
-      <c r="U33" t="s">
-        <v>103</v>
-      </c>
       <c r="V33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -3727,37 +3727,37 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T34" t="s">
+        <v>101</v>
+      </c>
+      <c r="U34" t="s">
         <v>102</v>
       </c>
-      <c r="U34" t="s">
-        <v>103</v>
-      </c>
       <c r="V34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -3765,37 +3765,37 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T35" t="s">
+        <v>101</v>
+      </c>
+      <c r="U35" t="s">
         <v>102</v>
       </c>
-      <c r="U35" t="s">
-        <v>103</v>
-      </c>
       <c r="V35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -3803,37 +3803,37 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T36" t="s">
+        <v>101</v>
+      </c>
+      <c r="U36" t="s">
         <v>102</v>
       </c>
-      <c r="U36" t="s">
-        <v>103</v>
-      </c>
       <c r="V36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -3841,37 +3841,37 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" t="s">
         <v>185</v>
       </c>
-      <c r="E37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" t="s">
-        <v>186</v>
-      </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T37" t="s">
+        <v>101</v>
+      </c>
+      <c r="U37" t="s">
         <v>102</v>
       </c>
-      <c r="U37" t="s">
-        <v>103</v>
-      </c>
       <c r="V37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -3879,37 +3879,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" t="s">
         <v>187</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
         <v>188</v>
       </c>
-      <c r="F38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" t="s">
-        <v>189</v>
-      </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T38" t="s">
+        <v>101</v>
+      </c>
+      <c r="U38" t="s">
         <v>102</v>
       </c>
-      <c r="U38" t="s">
-        <v>103</v>
-      </c>
       <c r="V38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3917,37 +3917,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" t="s">
         <v>190</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F39" t="s">
+      <c r="J39" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J39" t="s">
-        <v>47</v>
-      </c>
       <c r="T39" t="s">
+        <v>101</v>
+      </c>
+      <c r="U39" t="s">
         <v>102</v>
       </c>
-      <c r="U39" t="s">
-        <v>103</v>
-      </c>
       <c r="V39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -3955,37 +3955,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" t="s">
         <v>193</v>
       </c>
-      <c r="E40" t="s">
-        <v>194</v>
-      </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T40" t="s">
+        <v>101</v>
+      </c>
+      <c r="U40" t="s">
         <v>102</v>
       </c>
-      <c r="U40" t="s">
-        <v>103</v>
-      </c>
       <c r="V40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3993,37 +3993,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
         <v>195</v>
       </c>
-      <c r="E41" t="s">
-        <v>196</v>
-      </c>
       <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J41" t="s">
-        <v>47</v>
-      </c>
       <c r="T41" t="s">
+        <v>101</v>
+      </c>
+      <c r="U41" t="s">
         <v>102</v>
       </c>
-      <c r="U41" t="s">
-        <v>103</v>
-      </c>
       <c r="V41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -4031,37 +4031,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" t="s">
         <v>197</v>
       </c>
-      <c r="E42" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" t="s">
-        <v>198</v>
-      </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T42" t="s">
+        <v>101</v>
+      </c>
+      <c r="U42" t="s">
         <v>102</v>
       </c>
-      <c r="U42" t="s">
-        <v>103</v>
-      </c>
       <c r="V42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="315" x14ac:dyDescent="0.25">
@@ -4069,43 +4069,43 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" t="s">
         <v>199</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
         <v>200</v>
       </c>
-      <c r="F43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="J43" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="T43" t="s">
+        <v>101</v>
+      </c>
+      <c r="U43" t="s">
+        <v>273</v>
+      </c>
+      <c r="V43" t="s">
+        <v>101</v>
+      </c>
+      <c r="W43" t="s">
+        <v>101</v>
+      </c>
+      <c r="X43" t="s">
         <v>201</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="T43" t="s">
-        <v>102</v>
-      </c>
-      <c r="U43" t="s">
-        <v>274</v>
-      </c>
-      <c r="V43" t="s">
-        <v>102</v>
-      </c>
-      <c r="W43" t="s">
-        <v>102</v>
-      </c>
-      <c r="X43" t="s">
-        <v>202</v>
-      </c>
       <c r="Z43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="165" x14ac:dyDescent="0.25">
@@ -4113,43 +4113,43 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" t="s">
         <v>204</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>205</v>
       </c>
-      <c r="K44" t="s">
+      <c r="Q44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="T44" t="s">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V44" t="s">
+        <v>70</v>
+      </c>
+      <c r="W44" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="T44" t="s">
-        <v>41</v>
-      </c>
-      <c r="U44" t="s">
-        <v>61</v>
-      </c>
-      <c r="V44" t="s">
-        <v>71</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="225" x14ac:dyDescent="0.25">
@@ -4157,52 +4157,52 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" t="s">
         <v>209</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" t="s">
         <v>211</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>212</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>213</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>214</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="P45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q45" s="1" t="s">
+      <c r="T45" t="s">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s">
+        <v>60</v>
+      </c>
+      <c r="V45" t="s">
+        <v>70</v>
+      </c>
+      <c r="W45" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="T45" t="s">
-        <v>41</v>
-      </c>
-      <c r="U45" t="s">
-        <v>61</v>
-      </c>
-      <c r="V45" t="s">
-        <v>71</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4210,37 +4210,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E46" t="s">
-        <v>218</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="J46" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J46" t="s">
-        <v>47</v>
-      </c>
       <c r="T46" t="s">
+        <v>101</v>
+      </c>
+      <c r="U46" t="s">
         <v>102</v>
       </c>
-      <c r="U46" t="s">
-        <v>103</v>
-      </c>
       <c r="V46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4248,52 +4248,52 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
         <v>220</v>
       </c>
-      <c r="E47" t="s">
-        <v>220</v>
-      </c>
-      <c r="F47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
+        <v>340</v>
+      </c>
+      <c r="K47" t="s">
         <v>221</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
+        <v>213</v>
+      </c>
+      <c r="M47" t="s">
+        <v>222</v>
+      </c>
+      <c r="P47" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T47" t="s">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s">
+        <v>41</v>
+      </c>
+      <c r="V47" t="s">
+        <v>61</v>
+      </c>
+      <c r="W47" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="K47" t="s">
-        <v>222</v>
-      </c>
-      <c r="L47" t="s">
-        <v>214</v>
-      </c>
-      <c r="M47" t="s">
-        <v>223</v>
-      </c>
-      <c r="P47" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="T47" t="s">
-        <v>41</v>
-      </c>
-      <c r="U47" t="s">
-        <v>42</v>
-      </c>
-      <c r="V47" t="s">
-        <v>62</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="75" x14ac:dyDescent="0.25">
@@ -4301,43 +4301,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E48" t="s">
-        <v>225</v>
-      </c>
-      <c r="F48" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="J48" t="s">
+        <v>323</v>
+      </c>
+      <c r="K48" t="s">
         <v>324</v>
       </c>
-      <c r="K48" t="s">
+      <c r="Q48" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="T48" t="s">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s">
+        <v>60</v>
+      </c>
+      <c r="V48" t="s">
+        <v>70</v>
+      </c>
+      <c r="W48" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="T48" t="s">
-        <v>41</v>
-      </c>
-      <c r="U48" t="s">
-        <v>61</v>
-      </c>
-      <c r="V48" t="s">
-        <v>71</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="120" x14ac:dyDescent="0.25">
@@ -4345,49 +4345,49 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D49" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" t="s">
         <v>227</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F49" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="S49" t="s">
         <v>231</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s">
+        <v>60</v>
+      </c>
+      <c r="V49" t="s">
+        <v>141</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="X49" t="s">
         <v>232</v>
       </c>
-      <c r="T49" t="s">
-        <v>41</v>
-      </c>
-      <c r="U49" t="s">
-        <v>61</v>
-      </c>
-      <c r="V49" t="s">
-        <v>142</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="X49" t="s">
-        <v>233</v>
-      </c>
       <c r="Z49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4395,37 +4395,37 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" t="s">
         <v>234</v>
       </c>
-      <c r="E50" t="s">
-        <v>235</v>
-      </c>
       <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J50" t="s">
         <v>46</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J50" t="s">
-        <v>47</v>
-      </c>
       <c r="T50" t="s">
+        <v>101</v>
+      </c>
+      <c r="U50" t="s">
         <v>102</v>
       </c>
-      <c r="U50" t="s">
-        <v>103</v>
-      </c>
       <c r="V50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4433,40 +4433,40 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" t="s">
         <v>236</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J51" t="s">
         <v>237</v>
       </c>
-      <c r="F51" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>238</v>
       </c>
-      <c r="K51" t="s">
-        <v>239</v>
-      </c>
       <c r="T51" t="s">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s">
         <v>41</v>
       </c>
-      <c r="U51" t="s">
-        <v>42</v>
-      </c>
       <c r="V51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -4474,37 +4474,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D52" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" t="s">
         <v>240</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F52" t="s">
+      <c r="J52" t="s">
         <v>46</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J52" t="s">
-        <v>47</v>
-      </c>
       <c r="T52" t="s">
+        <v>101</v>
+      </c>
+      <c r="U52" t="s">
         <v>102</v>
       </c>
-      <c r="U52" t="s">
-        <v>103</v>
-      </c>
       <c r="V52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="120" x14ac:dyDescent="0.25">
@@ -4512,46 +4512,46 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K53" t="s">
         <v>243</v>
       </c>
-      <c r="E53" t="s">
-        <v>243</v>
-      </c>
-      <c r="F53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="T53" t="s">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s">
+        <v>41</v>
+      </c>
+      <c r="V53" t="s">
+        <v>70</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="X53" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="T53" t="s">
-        <v>41</v>
-      </c>
-      <c r="U53" t="s">
-        <v>42</v>
-      </c>
-      <c r="V53" t="s">
-        <v>71</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="Z53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4559,46 +4559,46 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D54" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" t="s">
+        <v>245</v>
+      </c>
+      <c r="F54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K54" t="s">
         <v>246</v>
       </c>
-      <c r="E54" t="s">
-        <v>246</v>
-      </c>
-      <c r="F54" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K54" t="s">
-        <v>247</v>
-      </c>
       <c r="T54" t="s">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s">
         <v>41</v>
       </c>
-      <c r="U54" t="s">
-        <v>42</v>
-      </c>
       <c r="V54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4606,37 +4606,37 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J55" t="s">
         <v>46</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J55" t="s">
-        <v>47</v>
-      </c>
       <c r="T55" t="s">
+        <v>101</v>
+      </c>
+      <c r="U55" t="s">
         <v>102</v>
       </c>
-      <c r="U55" t="s">
-        <v>103</v>
-      </c>
       <c r="V55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4644,37 +4644,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J56" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J56" t="s">
-        <v>47</v>
-      </c>
       <c r="T56" t="s">
+        <v>101</v>
+      </c>
+      <c r="U56" t="s">
         <v>102</v>
       </c>
-      <c r="U56" t="s">
-        <v>103</v>
-      </c>
       <c r="V56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4682,37 +4682,37 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J57" t="s">
         <v>46</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J57" t="s">
-        <v>47</v>
-      </c>
       <c r="T57" t="s">
+        <v>101</v>
+      </c>
+      <c r="U57" t="s">
         <v>102</v>
       </c>
-      <c r="U57" t="s">
-        <v>103</v>
-      </c>
       <c r="V57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4720,37 +4720,37 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" t="s">
         <v>251</v>
       </c>
-      <c r="E58" t="s">
-        <v>252</v>
-      </c>
       <c r="F58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J58" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J58" t="s">
-        <v>47</v>
-      </c>
       <c r="T58" t="s">
+        <v>101</v>
+      </c>
+      <c r="U58" t="s">
         <v>102</v>
       </c>
-      <c r="U58" t="s">
-        <v>103</v>
-      </c>
       <c r="V58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -4758,34 +4758,34 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C59" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
         <v>46</v>
       </c>
-      <c r="J59" t="s">
-        <v>47</v>
-      </c>
       <c r="T59" t="s">
+        <v>101</v>
+      </c>
+      <c r="U59" t="s">
         <v>102</v>
       </c>
-      <c r="U59" t="s">
-        <v>103</v>
-      </c>
       <c r="V59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
@@ -4793,34 +4793,34 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F60" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" t="s">
         <v>46</v>
       </c>
-      <c r="J60" t="s">
-        <v>47</v>
-      </c>
       <c r="T60" t="s">
+        <v>101</v>
+      </c>
+      <c r="U60" t="s">
         <v>102</v>
       </c>
-      <c r="U60" t="s">
-        <v>103</v>
-      </c>
       <c r="V60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
@@ -4828,34 +4828,34 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s">
         <v>46</v>
       </c>
-      <c r="J61" t="s">
-        <v>47</v>
-      </c>
       <c r="T61" t="s">
+        <v>101</v>
+      </c>
+      <c r="U61" t="s">
         <v>102</v>
       </c>
-      <c r="U61" t="s">
-        <v>103</v>
-      </c>
       <c r="V61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -4863,34 +4863,34 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" t="s">
         <v>46</v>
       </c>
-      <c r="J62" t="s">
-        <v>47</v>
-      </c>
       <c r="T62" t="s">
+        <v>101</v>
+      </c>
+      <c r="U62" t="s">
         <v>102</v>
       </c>
-      <c r="U62" t="s">
-        <v>103</v>
-      </c>
       <c r="V62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
@@ -4898,34 +4898,34 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C63" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F63" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s">
         <v>46</v>
       </c>
-      <c r="J63" t="s">
-        <v>47</v>
-      </c>
       <c r="T63" t="s">
+        <v>101</v>
+      </c>
+      <c r="U63" t="s">
         <v>102</v>
       </c>
-      <c r="U63" t="s">
-        <v>103</v>
-      </c>
       <c r="V63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -4933,34 +4933,34 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J64" t="s">
         <v>46</v>
       </c>
-      <c r="J64" t="s">
-        <v>47</v>
-      </c>
       <c r="T64" t="s">
+        <v>101</v>
+      </c>
+      <c r="U64" t="s">
         <v>102</v>
       </c>
-      <c r="U64" t="s">
-        <v>103</v>
-      </c>
       <c r="V64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -4968,34 +4968,34 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65" t="s">
         <v>46</v>
       </c>
-      <c r="J65" t="s">
-        <v>47</v>
-      </c>
       <c r="T65" t="s">
+        <v>101</v>
+      </c>
+      <c r="U65" t="s">
         <v>102</v>
       </c>
-      <c r="U65" t="s">
-        <v>103</v>
-      </c>
       <c r="V65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -5003,37 +5003,37 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E66" t="s">
-        <v>260</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="J66" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J66" t="s">
-        <v>47</v>
-      </c>
       <c r="T66" t="s">
+        <v>101</v>
+      </c>
+      <c r="U66" t="s">
         <v>102</v>
       </c>
-      <c r="U66" t="s">
-        <v>103</v>
-      </c>
       <c r="V66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -5041,40 +5041,40 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C67" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D67" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
         <v>262</v>
       </c>
-      <c r="E67" t="s">
-        <v>262</v>
-      </c>
-      <c r="F67" t="s">
-        <v>101</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="J67" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="T67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U67" t="s">
+        <v>60</v>
+      </c>
+      <c r="V67" t="s">
         <v>61</v>
       </c>
-      <c r="V67" t="s">
-        <v>62</v>
-      </c>
       <c r="W67" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="165" x14ac:dyDescent="0.25">
@@ -5082,40 +5082,40 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D68" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E68" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" t="s">
-        <v>46</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="J68" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="255" x14ac:dyDescent="0.25">
@@ -5123,52 +5123,52 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E69" t="s">
-        <v>267</v>
-      </c>
-      <c r="F69" t="s">
-        <v>46</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="J69" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="L69" t="s">
         <v>270</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="P69" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q69" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="P69" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q69" s="1" t="s">
+      <c r="T69" t="s">
+        <v>101</v>
+      </c>
+      <c r="U69" t="s">
         <v>273</v>
       </c>
-      <c r="T69" t="s">
-        <v>102</v>
-      </c>
-      <c r="U69" t="s">
-        <v>274</v>
-      </c>
       <c r="V69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -5176,37 +5176,37 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C70" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E70" t="s">
-        <v>275</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="J70" t="s">
         <v>46</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J70" t="s">
-        <v>47</v>
-      </c>
       <c r="T70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="285" x14ac:dyDescent="0.25">
@@ -5214,49 +5214,49 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="285" x14ac:dyDescent="0.25">
@@ -5264,49 +5264,49 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M72" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T72" t="s">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s">
+        <v>60</v>
+      </c>
+      <c r="V72" t="s">
+        <v>70</v>
+      </c>
+      <c r="W72" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="T72" t="s">
-        <v>41</v>
-      </c>
-      <c r="U72" t="s">
-        <v>61</v>
-      </c>
-      <c r="V72" t="s">
-        <v>71</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="330" x14ac:dyDescent="0.25">
@@ -5314,37 +5314,37 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D73" t="s">
+        <v>278</v>
+      </c>
+      <c r="E73" t="s">
         <v>279</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F73" t="s">
+      <c r="J73" t="s">
         <v>46</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J73" t="s">
-        <v>47</v>
-      </c>
       <c r="T73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -5352,37 +5352,37 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C74" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D74" t="s">
+        <v>281</v>
+      </c>
+      <c r="E74" t="s">
         <v>282</v>
       </c>
-      <c r="E74" t="s">
-        <v>283</v>
-      </c>
       <c r="F74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J74" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J74" t="s">
-        <v>47</v>
-      </c>
       <c r="T74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="90" x14ac:dyDescent="0.25">
@@ -5390,37 +5390,37 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C75" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D75" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" t="s">
         <v>284</v>
       </c>
-      <c r="E75" t="s">
-        <v>285</v>
-      </c>
       <c r="F75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J75" t="s">
         <v>46</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J75" t="s">
-        <v>47</v>
-      </c>
       <c r="T75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -5428,37 +5428,37 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C76" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D76" t="s">
+        <v>285</v>
+      </c>
+      <c r="E76" t="s">
         <v>286</v>
       </c>
-      <c r="E76" t="s">
-        <v>287</v>
-      </c>
       <c r="F76" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" t="s">
+        <v>262</v>
+      </c>
+      <c r="J76" t="s">
         <v>46</v>
       </c>
-      <c r="G76" t="s">
-        <v>263</v>
-      </c>
-      <c r="J76" t="s">
-        <v>47</v>
-      </c>
       <c r="T76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="165" x14ac:dyDescent="0.25">
@@ -5466,37 +5466,37 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D77" t="s">
+        <v>287</v>
+      </c>
+      <c r="E77" t="s">
         <v>288</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F77" t="s">
+      <c r="J77" t="s">
         <v>46</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="J77" t="s">
-        <v>47</v>
-      </c>
       <c r="T77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="210" x14ac:dyDescent="0.25">
@@ -5504,43 +5504,43 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C78" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D78" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" t="s">
         <v>291</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F78" t="s">
-        <v>46</v>
-      </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" t="s">
         <v>293</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>294</v>
       </c>
-      <c r="K78" t="s">
+      <c r="Q78" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="T78" t="s">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s">
+        <v>60</v>
+      </c>
+      <c r="V78" t="s">
+        <v>70</v>
+      </c>
+      <c r="W78" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="T78" t="s">
-        <v>41</v>
-      </c>
-      <c r="U78" t="s">
-        <v>61</v>
-      </c>
-      <c r="V78" t="s">
-        <v>71</v>
-      </c>
-      <c r="W78" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="180" x14ac:dyDescent="0.25">
@@ -5548,43 +5548,43 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D79" t="s">
+        <v>297</v>
+      </c>
+      <c r="E79" t="s">
+        <v>297</v>
+      </c>
+      <c r="F79" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E79" t="s">
-        <v>298</v>
-      </c>
-      <c r="F79" t="s">
-        <v>46</v>
-      </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" t="s">
         <v>299</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>300</v>
       </c>
-      <c r="K79" t="s">
+      <c r="Q79" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="T79" t="s">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s">
+        <v>60</v>
+      </c>
+      <c r="V79" t="s">
+        <v>70</v>
+      </c>
+      <c r="W79" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="T79" t="s">
-        <v>41</v>
-      </c>
-      <c r="U79" t="s">
-        <v>61</v>
-      </c>
-      <c r="V79" t="s">
-        <v>71</v>
-      </c>
-      <c r="W79" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="390" x14ac:dyDescent="0.25">
@@ -5592,37 +5592,37 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C80" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D80" t="s">
+        <v>303</v>
+      </c>
+      <c r="E80" t="s">
         <v>304</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F80" t="s">
-        <v>46</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J80" s="1" t="s">
+      <c r="T80" t="s">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s">
+        <v>60</v>
+      </c>
+      <c r="V80" t="s">
+        <v>141</v>
+      </c>
+      <c r="W80" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="T80" t="s">
-        <v>41</v>
-      </c>
-      <c r="U80" t="s">
-        <v>61</v>
-      </c>
-      <c r="V80" t="s">
-        <v>142</v>
-      </c>
-      <c r="W80" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="150" x14ac:dyDescent="0.25">
@@ -5630,43 +5630,43 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C81" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D81" t="s">
+        <v>307</v>
+      </c>
+      <c r="E81" t="s">
         <v>308</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F81" t="s">
-        <v>46</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="Q81" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="Q81" s="1" t="s">
+      <c r="T81" t="s">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s">
+        <v>60</v>
+      </c>
+      <c r="V81" t="s">
+        <v>141</v>
+      </c>
+      <c r="W81" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="T81" t="s">
-        <v>41</v>
-      </c>
-      <c r="U81" t="s">
-        <v>61</v>
-      </c>
-      <c r="V81" t="s">
-        <v>142</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -5674,37 +5674,37 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D82" t="s">
+        <v>313</v>
+      </c>
+      <c r="E82" t="s">
         <v>314</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F82" t="s">
-        <v>46</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J82" s="1" t="s">
+      <c r="T82" t="s">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s">
+        <v>60</v>
+      </c>
+      <c r="V82" t="s">
+        <v>141</v>
+      </c>
+      <c r="W82" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="T82" t="s">
-        <v>41</v>
-      </c>
-      <c r="U82" t="s">
-        <v>61</v>
-      </c>
-      <c r="V82" t="s">
-        <v>142</v>
-      </c>
-      <c r="W82" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -5712,37 +5712,37 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D83" t="s">
+        <v>317</v>
+      </c>
+      <c r="E83" t="s">
         <v>318</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F83" t="s">
-        <v>101</v>
-      </c>
-      <c r="J83" s="1" t="s">
+      <c r="T83" t="s">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s">
+        <v>60</v>
+      </c>
+      <c r="V83" t="s">
+        <v>61</v>
+      </c>
+      <c r="W83" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="T83" t="s">
-        <v>41</v>
-      </c>
-      <c r="U83" t="s">
-        <v>61</v>
-      </c>
-      <c r="V83" t="s">
-        <v>62</v>
-      </c>
-      <c r="W83" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
@@ -5750,37 +5750,37 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="C84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D84" t="s">
+        <v>320</v>
+      </c>
+      <c r="E84" t="s">
         <v>321</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" t="s">
         <v>322</v>
       </c>
-      <c r="F84" t="s">
-        <v>46</v>
-      </c>
-      <c r="G84" t="s">
-        <v>323</v>
-      </c>
       <c r="J84" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U84" t="s">
+        <v>60</v>
+      </c>
+      <c r="V84" t="s">
         <v>61</v>
       </c>
-      <c r="V84" t="s">
-        <v>62</v>
-      </c>
       <c r="W84" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">

--- a/longitudinal/data_processing_elements_longitudinal-BCS.xlsx
+++ b/longitudinal/data_processing_elements_longitudinal-BCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD4B2B4-341A-4733-AF59-0CE7D0946E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED22E88-3129-4FFB-AD3E-866BF99D1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{17FAC360-F975-4673-8378-999FF3470EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{17FAC360-F975-4673-8378-999FF3470EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="449">
   <si>
     <t>index</t>
   </si>
@@ -1835,12 +1835,130 @@
   <si>
     <t>BCS_f1</t>
   </si>
+  <si>
+    <t>recode(3=1;4=2;ELSE=NA)</t>
+  </si>
+  <si>
+    <t>ifelse(bd11mal &gt;= 0, bd11mal, NA)</t>
+  </si>
+  <si>
+    <t>bd11mal</t>
+  </si>
+  <si>
+    <t>(Derived) Total Malaise score (9 questions)</t>
+  </si>
+  <si>
+    <t>HAM_Depression</t>
+  </si>
+  <si>
+    <t>(Derived) Total Malaise score (9 questions) . Derived from 9 self-reported questionnaire items.</t>
+  </si>
+  <si>
+    <t>Total malaise score from a 9 item short version of the malaise inventory (B10Q28A- B10Q28I). Items cover negative emotions and physical response and are coded so high malaise scores always relate to affirmative responses. The score is the total number of ‘yes’ responses meaning higher scores correspond to higher malaise. Cases were excluded if the number of items without a response accounted for scores being under 4 (the prerequisite score for high malaise).</t>
+  </si>
+  <si>
+    <t>-8=not enough information</t>
+  </si>
+  <si>
+    <t>Hours spent watching TV-weekday;
+Hours spent watching TV-weekend</t>
+  </si>
+  <si>
+    <t>RSB_TV</t>
+  </si>
+  <si>
+    <t>Hours spent watching TV-weekday. Self-reported questionnaire "How many hours do you spend watching television programmes, videos, DVDs or Blu-ray? Please include time spent watching programmes or films on a computer. a) On a typical weekday". Options were: None, Less than an hour a day, 1 to 2 hours a day, 2 to 3 hours a day, 3 to 4 hours a day, More than 4 hours a day;
+Hours spent watching TV-weekend. Self-reported questionnaire "How many hours do you spend watching television programmes, videos, DVDs or Blu-ray? Please include time spent watching programmes or films on a computer. b) On a typical day at the weekend". Options were: None, Less than an hour a day, 1 to 2 hours a day, 2 to 3 hours a day, 3 to 4 hours a day, More than 4 hours a day</t>
+  </si>
+  <si>
+    <t>-9=Not answered
+-8=Invalid answer, mulitple responses
+-1=Not applicable
+1=None
+2=Less than an hour a day
+3=1 to 2 hours a day
+4=2 to 3 hours a day
+5=3 to 4 hours a day
+6=More than 4 hours a day</t>
+  </si>
+  <si>
+    <t>b11q3a;
+b11q3b</t>
+  </si>
+  <si>
+    <t>case_when(
+(rowSums(mutate(.,
+temp_b11q3a = case_when(b11q3a == 1 ~ 0*5,
+b11q3a == 2 ~ 0.5*5,
+b11q3a == 3 ~ 1.5*5,
+b11q3a == 4 ~ 2.5*5,
+b11q3a == 5 ~ 3.5*5,
+b11q3a == 6 ~ 4*5,
+TRUE ~ NA_real_),
+temp_b11q3b = case_when(b11q3b == 1 ~ 0*2,
+b11q3b == 2 ~ 0.5*2,
+b11q3b == 3 ~ 1.5*2,
+b11q3b == 4 ~ 2.5*2,
+b11q3b == 5 ~ 3.5*2,
+b11q3b == 6 ~ 4*2,
+TRUE ~ NA_real_)) %&gt;%
+select(temp_b11q3a , temp_b11q3b), na.rm = FALSE)/7) &lt;= 1 ~ 1L;
+(rowSums(mutate(.,
+temp_b11q3a = case_when(b11q3a == 1 ~ 0*5,
+b11q3a == 2 ~ 0.5*5,
+b11q3a == 3 ~ 1.5*5,
+b11q3a == 4 ~ 2.5*5,
+b11q3a == 5 ~ 3.5*5,
+b11q3a == 6 ~ 4*5,
+TRUE ~ NA_real_),
+temp_b11q3b = case_when(b11q3b == 1 ~ 0*2,
+b11q3b == 2 ~ 0.5*2,
+b11q3b == 3 ~ 1.5*2,
+b11q3b == 4 ~ 2.5*2,
+b11q3b == 5 ~ 3.5*2,
+b11q3b == 6 ~ 4*2,
+TRUE ~ NA_real_)) %&gt;%
+select(temp_b11q3a , temp_b11q3b), na.rm = FALSE)/7) &gt; 1 &amp;
+(rowSums(mutate(.,
+temp_b11q3a = case_when(b11q3a == 1 ~ 0*5,
+b11q3a == 2 ~ 0.5*5,
+b11q3a == 3 ~ 1.5*5,
+b11q3a == 4 ~ 2.5*5,
+b11q3a == 5 ~ 3.5*5,
+b11q3a == 6 ~ 4*5,
+TRUE ~ NA_real_),
+temp_b11q3b = case_when(b11q3b == 1 ~ 0*2,
+b11q3b == 2 ~ 0.5*2,
+b11q3b == 3 ~ 1.5*2,
+b11q3b == 4 ~ 2.5*2,
+b11q3b == 5 ~ 3.5*2,
+b11q3b == 6 ~ 4*2,
+TRUE ~ NA_real_)) %&gt;%
+select(temp_b11q3a , temp_b11q3b), na.rm = FALSE)/7) &lt;= 3 ~ 2L;
+(rowSums(mutate(.,
+temp_b11q3a = case_when(b11q3a == 1 ~ 0*5,
+b11q3a == 2 ~ 0.5*5,
+b11q3a == 3 ~ 1.5*5,
+b11q3a == 4 ~ 2.5*5,
+b11q3a == 5 ~ 3.5*5,
+b11q3a == 6 ~ 4*5,
+TRUE ~ NA_real_),
+temp_b11q3b = case_when(b11q3b == 1 ~ 0*2,
+b11q3b == 2 ~ 0.5*2,
+b11q3b == 3 ~ 1.5*2,
+b11q3b == 4 ~ 2.5*2,
+b11q3b == 5 ~ 3.5*2,
+b11q3b == 6 ~ 4*2,
+TRUE ~ NA_real_)) %&gt;%
+select(temp_b11q3a , temp_b11q3b), na.rm = FALSE)/7) &gt; 3 ~ 3L; 
+ELSE ~ NA_integer_)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,19 +1966,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1875,14 +1993,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1901,7 +2024,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2219,12 +2342,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9A9556-6A71-4D41-957B-24579A577B61}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D84" sqref="D84"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
@@ -2237,7 +2360,7 @@
     <col min="17" max="17" width="41.42578125" customWidth="1"/>
     <col min="19" max="19" width="18.85546875" customWidth="1"/>
     <col min="22" max="22" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="61.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="61.42578125" style="4" customWidth="1"/>
     <col min="24" max="24" width="14.5703125" customWidth="1"/>
     <col min="25" max="25" width="23.5703125" customWidth="1"/>
     <col min="26" max="26" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -2310,7 +2433,7 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -2384,7 +2507,7 @@
       <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2419,7 +2542,7 @@
       <c r="V3" t="s">
         <v>47</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2481,7 +2604,7 @@
       <c r="V4" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2531,7 +2654,7 @@
       <c r="V5" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2587,7 +2710,7 @@
       <c r="V6" t="s">
         <v>47</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="4">
         <v>51</v>
       </c>
     </row>
@@ -2631,7 +2754,7 @@
       <c r="V7" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2675,7 +2798,7 @@
       <c r="V8" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2719,7 +2842,7 @@
       <c r="V9" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2754,7 +2877,7 @@
       <c r="V10" t="s">
         <v>101</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2810,7 +2933,7 @@
       <c r="V11" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2854,7 +2977,7 @@
       <c r="V12" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2910,7 +3033,7 @@
       <c r="V13" t="s">
         <v>70</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2963,7 +3086,7 @@
       <c r="V14" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3007,7 +3130,7 @@
       <c r="V15" t="s">
         <v>70</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="4" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3048,7 +3171,7 @@
       <c r="V16" t="s">
         <v>141</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="W16" s="4" t="s">
         <v>142</v>
       </c>
       <c r="Z16" t="s">
@@ -3092,7 +3215,7 @@
       <c r="V17" t="s">
         <v>141</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3136,7 +3259,7 @@
       <c r="V18" t="s">
         <v>141</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="W18" s="4" t="s">
         <v>150</v>
       </c>
       <c r="Z18" t="s">
@@ -3183,7 +3306,7 @@
       <c r="V19" t="s">
         <v>141</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3227,7 +3350,7 @@
       <c r="V20" t="s">
         <v>141</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3265,7 +3388,7 @@
       <c r="V21" t="s">
         <v>101</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3303,7 +3426,7 @@
       <c r="V22" t="s">
         <v>101</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3341,7 +3464,7 @@
       <c r="V23" t="s">
         <v>101</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3376,7 +3499,7 @@
       <c r="V24" t="s">
         <v>101</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3414,7 +3537,7 @@
       <c r="V25" t="s">
         <v>101</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3452,7 +3575,7 @@
       <c r="V26" t="s">
         <v>101</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3490,7 +3613,7 @@
       <c r="V27" t="s">
         <v>101</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3528,7 +3651,7 @@
       <c r="V28" t="s">
         <v>101</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3566,7 +3689,7 @@
       <c r="V29" t="s">
         <v>101</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3604,7 +3727,7 @@
       <c r="V30" t="s">
         <v>101</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="W30" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3642,7 +3765,7 @@
       <c r="V31" t="s">
         <v>101</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3680,7 +3803,7 @@
       <c r="V32" t="s">
         <v>101</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3718,7 +3841,7 @@
       <c r="V33" t="s">
         <v>101</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="W33" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3756,7 +3879,7 @@
       <c r="V34" t="s">
         <v>101</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3794,7 +3917,7 @@
       <c r="V35" t="s">
         <v>101</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3832,7 +3955,7 @@
       <c r="V36" t="s">
         <v>101</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3870,7 +3993,7 @@
       <c r="V37" t="s">
         <v>101</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W37" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3908,7 +4031,7 @@
       <c r="V38" t="s">
         <v>101</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3946,7 +4069,7 @@
       <c r="V39" t="s">
         <v>101</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W39" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3984,7 +4107,7 @@
       <c r="V40" t="s">
         <v>101</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4022,7 +4145,7 @@
       <c r="V41" t="s">
         <v>101</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W41" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4060,7 +4183,7 @@
       <c r="V42" t="s">
         <v>101</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4098,7 +4221,7 @@
       <c r="V43" t="s">
         <v>101</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43" s="5" t="s">
         <v>101</v>
       </c>
       <c r="X43" t="s">
@@ -4148,7 +4271,7 @@
       <c r="V44" t="s">
         <v>70</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W44" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4201,11 +4324,11 @@
       <c r="V45" t="s">
         <v>70</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="225" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4228,19 +4351,31 @@
         <v>218</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>211</v>
+      </c>
+      <c r="K46" t="s">
+        <v>212</v>
+      </c>
+      <c r="L46" t="s">
+        <v>213</v>
+      </c>
+      <c r="M46" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="T46" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="U46" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>101</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4292,7 +4427,7 @@
       <c r="V47" t="s">
         <v>61</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W47" s="4" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4336,7 +4471,7 @@
       <c r="V48" t="s">
         <v>70</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="W48" s="4" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4380,7 +4515,7 @@
       <c r="V49" t="s">
         <v>141</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="W49" s="4" t="s">
         <v>342</v>
       </c>
       <c r="X49" t="s">
@@ -4424,7 +4559,7 @@
       <c r="V50" t="s">
         <v>101</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W50" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4465,7 +4600,7 @@
       <c r="V51" t="s">
         <v>70</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="W51" s="4" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4503,7 +4638,7 @@
       <c r="V52" t="s">
         <v>101</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="W52" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4544,7 +4679,7 @@
       <c r="V53" t="s">
         <v>70</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="W53" s="4" t="s">
         <v>330</v>
       </c>
       <c r="X53" s="1" t="s">
@@ -4591,7 +4726,7 @@
       <c r="V54" t="s">
         <v>70</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="W54" s="4" t="s">
         <v>330</v>
       </c>
       <c r="X54" t="s">
@@ -4635,7 +4770,7 @@
       <c r="V55" t="s">
         <v>101</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="W55" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4673,7 +4808,7 @@
       <c r="V56" t="s">
         <v>101</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="W56" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4711,7 +4846,7 @@
       <c r="V57" t="s">
         <v>101</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="W57" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4749,7 +4884,7 @@
       <c r="V58" t="s">
         <v>101</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="W58" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4784,7 +4919,7 @@
       <c r="V59" t="s">
         <v>101</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="W59" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4819,7 +4954,7 @@
       <c r="V60" t="s">
         <v>101</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="W60" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4843,19 +4978,38 @@
         <v>45</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>437</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="T61" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="U61" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="V61" t="s">
-        <v>101</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>101</v>
+        <v>61</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -4889,7 +5043,7 @@
       <c r="V62" t="s">
         <v>101</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="W62" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4924,7 +5078,7 @@
       <c r="V63" t="s">
         <v>101</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="W63" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4959,7 +5113,7 @@
       <c r="V64" t="s">
         <v>101</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="W64" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4994,7 +5148,7 @@
       <c r="V65" t="s">
         <v>101</v>
       </c>
-      <c r="W65" s="1" t="s">
+      <c r="W65" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5032,7 +5186,7 @@
       <c r="V66" t="s">
         <v>101</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="W66" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5073,7 +5227,7 @@
       <c r="V67" t="s">
         <v>61</v>
       </c>
-      <c r="W67" s="1" t="s">
+      <c r="W67" s="4" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5114,7 +5268,7 @@
       <c r="V68" t="s">
         <v>141</v>
       </c>
-      <c r="W68" s="1" t="s">
+      <c r="W68" s="4" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5167,11 +5321,11 @@
       <c r="V69" t="s">
         <v>101</v>
       </c>
-      <c r="W69" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="W69" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5193,20 +5347,39 @@
       <c r="I70" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J70" t="s">
-        <v>46</v>
-      </c>
-      <c r="T70" t="s">
-        <v>101</v>
-      </c>
-      <c r="U70" t="s">
-        <v>273</v>
-      </c>
-      <c r="V70" t="s">
-        <v>101</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>101</v>
+      <c r="J70" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="285" x14ac:dyDescent="0.25">
@@ -5255,7 +5428,7 @@
       <c r="V71" t="s">
         <v>70</v>
       </c>
-      <c r="W71" s="1" t="s">
+      <c r="W71" s="4" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5305,7 +5478,7 @@
       <c r="V72" t="s">
         <v>70</v>
       </c>
-      <c r="W72" s="1" t="s">
+      <c r="W72" s="4" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5343,7 +5516,7 @@
       <c r="V73" t="s">
         <v>101</v>
       </c>
-      <c r="W73" s="1" t="s">
+      <c r="W73" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5381,7 +5554,7 @@
       <c r="V74" t="s">
         <v>101</v>
       </c>
-      <c r="W74" s="1" t="s">
+      <c r="W74" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5419,7 +5592,7 @@
       <c r="V75" t="s">
         <v>101</v>
       </c>
-      <c r="W75" s="1" t="s">
+      <c r="W75" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5457,7 +5630,7 @@
       <c r="V76" t="s">
         <v>101</v>
       </c>
-      <c r="W76" s="1" t="s">
+      <c r="W76" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5495,7 +5668,7 @@
       <c r="V77" t="s">
         <v>101</v>
       </c>
-      <c r="W77" s="1" t="s">
+      <c r="W77" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5539,7 +5712,7 @@
       <c r="V78" t="s">
         <v>70</v>
       </c>
-      <c r="W78" s="1" t="s">
+      <c r="W78" s="4" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5583,7 +5756,7 @@
       <c r="V79" t="s">
         <v>70</v>
       </c>
-      <c r="W79" s="1" t="s">
+      <c r="W79" s="4" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5621,7 +5794,7 @@
       <c r="V80" t="s">
         <v>141</v>
       </c>
-      <c r="W80" s="1" t="s">
+      <c r="W80" s="4" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5665,7 +5838,7 @@
       <c r="V81" t="s">
         <v>141</v>
       </c>
-      <c r="W81" s="1" t="s">
+      <c r="W81" s="4" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5703,7 +5876,7 @@
       <c r="V82" t="s">
         <v>141</v>
       </c>
-      <c r="W82" s="1" t="s">
+      <c r="W82" s="4" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5741,7 +5914,7 @@
       <c r="V83" t="s">
         <v>61</v>
       </c>
-      <c r="W83" s="1" t="s">
+      <c r="W83" s="4" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5779,7 +5952,7 @@
       <c r="V84" t="s">
         <v>61</v>
       </c>
-      <c r="W84" s="1" t="s">
+      <c r="W84" s="4" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5793,7 +5966,6 @@
       <c r="M87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="W87" s="2"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I88" s="1"/>
@@ -5823,41 +5995,39 @@
       <c r="M96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I97" s="1"/>
       <c r="M97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:17" x14ac:dyDescent="0.25">
       <c r="J99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="W99" s="2"/>
-    </row>
-    <row r="100" spans="9:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:17" x14ac:dyDescent="0.25">
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="W101" s="2"/>
-    </row>
-    <row r="102" spans="9:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="P102" s="1"/>
     </row>
-    <row r="105" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I105" s="1"/>
     </row>
-    <row r="112" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I112" s="1"/>
     </row>
     <row r="122" spans="9:23" x14ac:dyDescent="0.25">
@@ -5868,7 +6038,7 @@
     </row>
     <row r="126" spans="9:23" x14ac:dyDescent="0.25">
       <c r="J126" s="1"/>
-      <c r="W126"/>
+      <c r="W126" s="5"/>
     </row>
     <row r="127" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I127" s="1"/>
@@ -6002,5 +6172,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>